--- a/26.06/fb-surveyMetro.xlsx
+++ b/26.06/fb-surveyMetro.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="1086">
   <si>
     <t>Aberdeen, SD</t>
   </si>
@@ -3260,6 +3260,18 @@
   </si>
   <si>
     <t>22 06 2020</t>
+  </si>
+  <si>
+    <t>23 06 2020</t>
+  </si>
+  <si>
+    <t>24 06 2020</t>
+  </si>
+  <si>
+    <t>25 06 2020</t>
+  </si>
+  <si>
+    <t>26 06 2020</t>
   </si>
 </sst>
 </file>
@@ -3591,7 +3603,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJD144"/>
+  <dimension ref="A1:AJD148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -38748,6 +38760,9 @@
       <c r="ACX95">
         <v>0</v>
       </c>
+      <c r="ACY95">
+        <v>0.4098361</v>
+      </c>
       <c r="ADI95">
         <v>1.0869565</v>
       </c>
@@ -39518,6 +39533,9 @@
       <c r="RL96">
         <v>0.2568934</v>
       </c>
+      <c r="RP96">
+        <v>1.8518519</v>
+      </c>
       <c r="RQ96">
         <v>0.432526</v>
       </c>
@@ -39569,6 +39587,9 @@
       <c r="SX96">
         <v>0.5460589</v>
       </c>
+      <c r="SZ96">
+        <v>0.7575758</v>
+      </c>
       <c r="TA96">
         <v>1.2162162</v>
       </c>
@@ -39871,6 +39892,9 @@
       </c>
       <c r="ACX96">
         <v>0</v>
+      </c>
+      <c r="ACY96">
+        <v>0.3816794</v>
       </c>
       <c r="ADI96">
         <v>1.1450382</v>
@@ -40642,6 +40666,9 @@
       <c r="RL97">
         <v>0.6178835</v>
       </c>
+      <c r="RP97">
+        <v>1.9047619</v>
+      </c>
       <c r="RQ97">
         <v>0.0822368</v>
       </c>
@@ -40692,6 +40719,9 @@
       </c>
       <c r="SX97">
         <v>0.5571705</v>
+      </c>
+      <c r="SZ97">
+        <v>0.7518797</v>
       </c>
       <c r="TA97">
         <v>0.6868132</v>
@@ -41814,6 +41844,9 @@
       <c r="SX98">
         <v>0.3894081</v>
       </c>
+      <c r="SZ98">
+        <v>0.7042254</v>
+      </c>
       <c r="TA98">
         <v>0.4098361</v>
       </c>
@@ -42935,6 +42968,9 @@
       <c r="SX99">
         <v>0.5494505</v>
       </c>
+      <c r="SZ99">
+        <v>0.9259259</v>
+      </c>
       <c r="TA99">
         <v>0.4076087</v>
       </c>
@@ -44056,6 +44092,9 @@
       <c r="SX100">
         <v>0.5660377</v>
       </c>
+      <c r="SZ100">
+        <v>0.9009009</v>
+      </c>
       <c r="TA100">
         <v>0.3865979</v>
       </c>
@@ -58224,6 +58263,9 @@
       <c r="IS113">
         <v>0.1677852</v>
       </c>
+      <c r="IW113">
+        <v>1.010101</v>
+      </c>
       <c r="IZ113">
         <v>0.5192108</v>
       </c>
@@ -59333,6 +59375,9 @@
       <c r="IS114">
         <v>0.4792332</v>
       </c>
+      <c r="IW114">
+        <v>0.8638211</v>
+      </c>
       <c r="IZ114">
         <v>0.8519702</v>
       </c>
@@ -60442,6 +60487,9 @@
       <c r="IS115">
         <v>0.4716981</v>
       </c>
+      <c r="IW115">
+        <v>1.1213992</v>
+      </c>
       <c r="IZ115">
         <v>1.1603376</v>
       </c>
@@ -61548,6 +61596,9 @@
       <c r="IS116">
         <v>0.4854369</v>
       </c>
+      <c r="IW116">
+        <v>0.8231707</v>
+      </c>
       <c r="IZ116">
         <v>1.0084926</v>
       </c>
@@ -62657,6 +62708,9 @@
       <c r="IS117">
         <v>0.4504505</v>
       </c>
+      <c r="IW117">
+        <v>1.2996032</v>
+      </c>
       <c r="IZ117">
         <v>0.8438819</v>
       </c>
@@ -64189,6 +64243,9 @@
       <c r="WW118">
         <v>0.2111231</v>
       </c>
+      <c r="WX118">
+        <v>0</v>
+      </c>
       <c r="WY118">
         <v>0.3401361</v>
       </c>
@@ -65295,6 +65352,9 @@
       <c r="WW119">
         <v>0.2276956</v>
       </c>
+      <c r="WX119">
+        <v>0</v>
+      </c>
       <c r="WY119">
         <v>0.3362152</v>
       </c>
@@ -66401,6 +66461,9 @@
       <c r="WW120">
         <v>0.1253855</v>
       </c>
+      <c r="WX120">
+        <v>0</v>
+      </c>
       <c r="WY120">
         <v>0.295858</v>
       </c>
@@ -67507,6 +67570,9 @@
       <c r="WW121">
         <v>0.1817269</v>
       </c>
+      <c r="WX121">
+        <v>0.78125</v>
+      </c>
       <c r="WY121">
         <v>0.7163324</v>
       </c>
@@ -68613,6 +68679,9 @@
       <c r="WW122">
         <v>0.1777982</v>
       </c>
+      <c r="WX122">
+        <v>0.862069</v>
+      </c>
       <c r="WY122">
         <v>0.755287</v>
       </c>
@@ -69920,6 +69989,9 @@
       <c r="ACX123">
         <v>0.5780347</v>
       </c>
+      <c r="ADI123">
+        <v>0</v>
+      </c>
       <c r="ADN123">
         <v>0</v>
       </c>
@@ -70021,6 +70093,9 @@
       </c>
       <c r="AGV123">
         <v>0.2347418</v>
+      </c>
+      <c r="AGY123">
+        <v>0</v>
       </c>
       <c r="AHA123">
         <v>0.4442523</v>
@@ -70444,6 +70519,9 @@
       <c r="KK124">
         <v>0</v>
       </c>
+      <c r="KL124">
+        <v>0.1592357</v>
+      </c>
       <c r="KO124">
         <v>0.22537</v>
       </c>
@@ -71017,6 +71095,9 @@
       <c r="ACX124">
         <v>0.591716</v>
       </c>
+      <c r="ADI124">
+        <v>0</v>
+      </c>
       <c r="ADN124">
         <v>0</v>
       </c>
@@ -71118,6 +71199,9 @@
       </c>
       <c r="AGV124">
         <v>0.2538071</v>
+      </c>
+      <c r="AGY124">
+        <v>0.2777778</v>
       </c>
       <c r="AHA124">
         <v>0.360203</v>
@@ -71541,6 +71625,9 @@
       <c r="KK125">
         <v>0</v>
       </c>
+      <c r="KL125">
+        <v>0.1655629</v>
+      </c>
       <c r="KO125">
         <v>0.2448292</v>
       </c>
@@ -72114,6 +72201,9 @@
       <c r="ACX125">
         <v>0.6289308</v>
       </c>
+      <c r="ADI125">
+        <v>0</v>
+      </c>
       <c r="ADN125">
         <v>1.1494253</v>
       </c>
@@ -72215,6 +72305,9 @@
       </c>
       <c r="AGV125">
         <v>0.2617801</v>
+      </c>
+      <c r="AGY125">
+        <v>0.280112</v>
       </c>
       <c r="AHA125">
         <v>0.382879</v>
@@ -72626,6 +72719,9 @@
       <c r="KC126">
         <v>0.7844038</v>
       </c>
+      <c r="KH126">
+        <v>1.0548523</v>
+      </c>
       <c r="KI126">
         <v>0.2452721</v>
       </c>
@@ -72635,6 +72731,9 @@
       <c r="KK126">
         <v>0</v>
       </c>
+      <c r="KL126">
+        <v>0.1623377</v>
+      </c>
       <c r="KO126">
         <v>0.1987997</v>
       </c>
@@ -73145,6 +73244,9 @@
       <c r="ABN126">
         <v>0</v>
       </c>
+      <c r="ABO126">
+        <v>0.8169935</v>
+      </c>
       <c r="ABP126">
         <v>0.2883512</v>
       </c>
@@ -73204,6 +73306,9 @@
       </c>
       <c r="ACX126">
         <v>0.6211179999999999</v>
+      </c>
+      <c r="ADI126">
+        <v>0</v>
       </c>
       <c r="ADN126">
         <v>1.1337868</v>
@@ -73717,6 +73822,9 @@
       <c r="KC127">
         <v>1.0370989</v>
       </c>
+      <c r="KH127">
+        <v>1.1415525</v>
+      </c>
       <c r="KI127">
         <v>0.2493436</v>
       </c>
@@ -73726,6 +73834,9 @@
       <c r="KK127">
         <v>0</v>
       </c>
+      <c r="KL127">
+        <v>0</v>
+      </c>
       <c r="KO127">
         <v>0.271645</v>
       </c>
@@ -73996,6 +74107,9 @@
       <c r="SX127">
         <v>0.5841121</v>
       </c>
+      <c r="TA127">
+        <v>0</v>
+      </c>
       <c r="TS127">
         <v>0.1550264</v>
       </c>
@@ -74233,6 +74347,9 @@
       <c r="ABN127">
         <v>0.1287001</v>
       </c>
+      <c r="ABO127">
+        <v>0.8928571</v>
+      </c>
       <c r="ABP127">
         <v>0.2483085</v>
       </c>
@@ -74292,6 +74409,9 @@
       </c>
       <c r="ACX127">
         <v>0.6211179999999999</v>
+      </c>
+      <c r="ADI127">
+        <v>0</v>
       </c>
       <c r="ADN127">
         <v>1.2820513</v>
@@ -74715,6 +74835,9 @@
       <c r="HF128">
         <v>0.2904474</v>
       </c>
+      <c r="HG128">
+        <v>0.3736921</v>
+      </c>
       <c r="HH128">
         <v>0.5064457</v>
       </c>
@@ -74802,6 +74925,9 @@
       <c r="KC128">
         <v>0.9741656</v>
       </c>
+      <c r="KH128">
+        <v>1.0615711</v>
+      </c>
       <c r="KI128">
         <v>0.1851985</v>
       </c>
@@ -74811,6 +74937,9 @@
       <c r="KK128">
         <v>0.2369668</v>
       </c>
+      <c r="KL128">
+        <v>0</v>
+      </c>
       <c r="KO128">
         <v>0.2655479</v>
       </c>
@@ -75051,6 +75180,9 @@
       <c r="SD128">
         <v>0.6769984</v>
       </c>
+      <c r="SE128">
+        <v>0</v>
+      </c>
       <c r="SG128">
         <v>0.4121445</v>
       </c>
@@ -75078,6 +75210,9 @@
       <c r="SX128">
         <v>0.5924171</v>
       </c>
+      <c r="TA128">
+        <v>0</v>
+      </c>
       <c r="TS128">
         <v>0.2113332</v>
       </c>
@@ -75314,6 +75449,9 @@
       </c>
       <c r="ABN128">
         <v>0.1355014</v>
+      </c>
+      <c r="ABO128">
+        <v>1.5384615</v>
       </c>
       <c r="ABP128">
         <v>0.2752271</v>
@@ -75797,6 +75935,9 @@
       <c r="HF129">
         <v>0.2697384</v>
       </c>
+      <c r="HG129">
+        <v>0.2242152</v>
+      </c>
       <c r="HH129">
         <v>0.5178908</v>
       </c>
@@ -75884,6 +76025,9 @@
       <c r="KC129">
         <v>1.0537296</v>
       </c>
+      <c r="KH129">
+        <v>1.2362031</v>
+      </c>
       <c r="KI129">
         <v>0.2207052</v>
       </c>
@@ -76133,6 +76277,9 @@
       <c r="SD129">
         <v>0.6836903</v>
       </c>
+      <c r="SE129">
+        <v>0</v>
+      </c>
       <c r="SG129">
         <v>0.4975929</v>
       </c>
@@ -76160,6 +76307,9 @@
       <c r="SX129">
         <v>0.8274232</v>
       </c>
+      <c r="TA129">
+        <v>0</v>
+      </c>
       <c r="TS129">
         <v>0.307444</v>
       </c>
@@ -76396,6 +76546,9 @@
       </c>
       <c r="ABN129">
         <v>0.1388889</v>
+      </c>
+      <c r="ABO129">
+        <v>1.3779528</v>
       </c>
       <c r="ABP129">
         <v>0.2352681</v>
@@ -76879,6 +77032,9 @@
       <c r="HF130">
         <v>0.3052517</v>
       </c>
+      <c r="HG130">
+        <v>0.2415459</v>
+      </c>
       <c r="HH130">
         <v>0.5623722</v>
       </c>
@@ -76966,6 +77122,9 @@
       <c r="KC130">
         <v>0.9765528</v>
       </c>
+      <c r="KH130">
+        <v>1.2444444</v>
+      </c>
       <c r="KI130">
         <v>0.3434262</v>
       </c>
@@ -77215,6 +77374,9 @@
       <c r="SD130">
         <v>0.6638196</v>
       </c>
+      <c r="SE130">
+        <v>0.2192982</v>
+      </c>
       <c r="SG130">
         <v>0.5017845</v>
       </c>
@@ -77242,6 +77404,9 @@
       <c r="SX130">
         <v>0.8393285</v>
       </c>
+      <c r="TA130">
+        <v>0</v>
+      </c>
       <c r="TS130">
         <v>0.4467282</v>
       </c>
@@ -77478,6 +77643,9 @@
       </c>
       <c r="ABN130">
         <v>0.140647</v>
+      </c>
+      <c r="ABO130">
+        <v>1.8595041</v>
       </c>
       <c r="ABP130">
         <v>0.1912731</v>
@@ -77958,6 +78126,9 @@
       <c r="HF131">
         <v>0.4153145</v>
       </c>
+      <c r="HG131">
+        <v>0.7425743</v>
+      </c>
       <c r="HH131">
         <v>0.4219409</v>
       </c>
@@ -78294,6 +78465,9 @@
       <c r="SD131">
         <v>0.5825962</v>
       </c>
+      <c r="SE131">
+        <v>0.2016129</v>
+      </c>
       <c r="SG131">
         <v>0.5561951000000001</v>
       </c>
@@ -78320,6 +78494,9 @@
       </c>
       <c r="SX131">
         <v>0.6097561</v>
+      </c>
+      <c r="TA131">
+        <v>0</v>
       </c>
       <c r="TS131">
         <v>0.4728307</v>
@@ -78953,6 +79130,9 @@
       <c r="EN132">
         <v>0.7968127</v>
       </c>
+      <c r="EQ132">
+        <v>0.8196721</v>
+      </c>
       <c r="ER132">
         <v>0.8608815</v>
       </c>
@@ -79369,6 +79549,9 @@
       </c>
       <c r="SD132">
         <v>0.5528672</v>
+      </c>
+      <c r="SE132">
+        <v>0.2155172</v>
       </c>
       <c r="SG132">
         <v>0.5880083</v>
@@ -80029,6 +80212,9 @@
       <c r="EN133">
         <v>0.8474576</v>
       </c>
+      <c r="EQ133">
+        <v>0.877193</v>
+      </c>
       <c r="ER133">
         <v>1.0251323</v>
       </c>
@@ -80203,6 +80389,9 @@
       <c r="KJ133">
         <v>0.4297459</v>
       </c>
+      <c r="KK133">
+        <v>0.6647329</v>
+      </c>
       <c r="KO133">
         <v>0.3659614</v>
       </c>
@@ -80892,6 +81081,9 @@
       </c>
       <c r="AHX133">
         <v>0.1572327</v>
+      </c>
+      <c r="AHY133">
+        <v>0.4385965</v>
       </c>
       <c r="AIB133">
         <v>1.4285714</v>
@@ -81273,6 +81465,9 @@
       <c r="KJ134">
         <v>0.5067568</v>
       </c>
+      <c r="KK134">
+        <v>0.7195186</v>
+      </c>
       <c r="KO134">
         <v>0.281841</v>
       </c>
@@ -81962,6 +82157,9 @@
       </c>
       <c r="AHX134">
         <v>0.154321</v>
+      </c>
+      <c r="AHY134">
+        <v>1.1934156</v>
       </c>
       <c r="AIB134">
         <v>1.3824885</v>
@@ -82145,6 +82343,9 @@
       <c r="DS135">
         <v>1.2228692</v>
       </c>
+      <c r="DU135">
+        <v>0.7899807</v>
+      </c>
       <c r="DW135">
         <v>0.2004793</v>
       </c>
@@ -82340,6 +82541,9 @@
       <c r="KJ135">
         <v>0.3131524</v>
       </c>
+      <c r="KK135">
+        <v>0.4876649</v>
+      </c>
       <c r="KO135">
         <v>0.2680463</v>
       </c>
@@ -82760,6 +82964,9 @@
       <c r="YY135">
         <v>0.1019368</v>
       </c>
+      <c r="ZD135">
+        <v>0.7246377000000001</v>
+      </c>
       <c r="ZL135">
         <v>0.3340429</v>
       </c>
@@ -83026,6 +83233,9 @@
       </c>
       <c r="AHX135">
         <v>0.1461988</v>
+      </c>
+      <c r="AHY135">
+        <v>1.095994</v>
       </c>
       <c r="AIB135">
         <v>1.3215859</v>
@@ -83176,6 +83386,9 @@
       <c r="CO136">
         <v>0.7974909999999999</v>
       </c>
+      <c r="CQ136">
+        <v>0.8333333000000001</v>
+      </c>
       <c r="CR136">
         <v>0.4458042</v>
       </c>
@@ -83206,6 +83419,9 @@
       <c r="DS136">
         <v>1.1687522</v>
       </c>
+      <c r="DU136">
+        <v>0.6704981</v>
+      </c>
       <c r="DW136">
         <v>0.1808517</v>
       </c>
@@ -83401,6 +83617,9 @@
       <c r="KJ136">
         <v>0.6673882</v>
       </c>
+      <c r="KK136">
+        <v>1.0707241</v>
+      </c>
       <c r="KO136">
         <v>0.302038</v>
       </c>
@@ -83821,6 +84040,9 @@
       <c r="YY136">
         <v>0.1075269</v>
       </c>
+      <c r="ZD136">
+        <v>0</v>
+      </c>
       <c r="ZL136">
         <v>0.4201744</v>
       </c>
@@ -83959,6 +84181,9 @@
       <c r="ACX136">
         <v>0.5524862</v>
       </c>
+      <c r="ADN136">
+        <v>1.3605442</v>
+      </c>
       <c r="ADP136">
         <v>0.6634795999999999</v>
       </c>
@@ -84084,6 +84309,9 @@
       </c>
       <c r="AHX136">
         <v>0.1501502</v>
+      </c>
+      <c r="AHY136">
+        <v>1.0261854</v>
       </c>
       <c r="AIB136">
         <v>1.3636364</v>
@@ -84234,6 +84462,9 @@
       <c r="CO137">
         <v>0.702847</v>
       </c>
+      <c r="CQ137">
+        <v>0.8928571</v>
+      </c>
       <c r="CR137">
         <v>0.5440505</v>
       </c>
@@ -84264,6 +84495,9 @@
       <c r="DS137">
         <v>1.0272308</v>
       </c>
+      <c r="DU137">
+        <v>0.6782946</v>
+      </c>
       <c r="DW137">
         <v>0.2552389</v>
       </c>
@@ -84459,6 +84693,9 @@
       <c r="KJ137">
         <v>0.6057269</v>
       </c>
+      <c r="KK137">
+        <v>1.0520487</v>
+      </c>
       <c r="KO137">
         <v>0.2584781</v>
       </c>
@@ -84669,6 +84906,9 @@
       <c r="RD137">
         <v>0.5770969</v>
       </c>
+      <c r="RG137">
+        <v>0</v>
+      </c>
       <c r="RI137">
         <v>0.8791209</v>
       </c>
@@ -84876,6 +85116,9 @@
       <c r="YY137">
         <v>0</v>
       </c>
+      <c r="ZD137">
+        <v>0</v>
+      </c>
       <c r="ZL137">
         <v>0.2519441</v>
       </c>
@@ -85014,6 +85257,9 @@
       <c r="ACX137">
         <v>0.5347594</v>
       </c>
+      <c r="ADN137">
+        <v>1.2820513</v>
+      </c>
       <c r="ADP137">
         <v>0.4775024</v>
       </c>
@@ -85139,6 +85385,9 @@
       </c>
       <c r="AHX137">
         <v>0</v>
+      </c>
+      <c r="AHY137">
+        <v>0.9259259</v>
       </c>
       <c r="AIB137">
         <v>1.4778325</v>
@@ -85289,6 +85538,9 @@
       <c r="CO138">
         <v>0.4858657</v>
       </c>
+      <c r="CQ138">
+        <v>1.5337423</v>
+      </c>
       <c r="CR138">
         <v>0.5504261</v>
       </c>
@@ -85307,6 +85559,9 @@
       <c r="DD138">
         <v>0.1374581</v>
       </c>
+      <c r="DE138">
+        <v>1.0268562</v>
+      </c>
       <c r="DK138">
         <v>0.2415459</v>
       </c>
@@ -85316,6 +85571,9 @@
       <c r="DS138">
         <v>1.0222385</v>
       </c>
+      <c r="DU138">
+        <v>0.6903353</v>
+      </c>
       <c r="DW138">
         <v>0.2287566</v>
       </c>
@@ -85496,6 +85754,9 @@
       <c r="JX138">
         <v>0.0416667</v>
       </c>
+      <c r="KA138">
+        <v>0.2777778</v>
+      </c>
       <c r="KB138">
         <v>0.5772758</v>
       </c>
@@ -85718,6 +85979,9 @@
       <c r="RD138">
         <v>0.6371603</v>
       </c>
+      <c r="RG138">
+        <v>0</v>
+      </c>
       <c r="RI138">
         <v>0.9078947000000001</v>
       </c>
@@ -85925,6 +86189,9 @@
       <c r="YY138">
         <v>0</v>
       </c>
+      <c r="ZD138">
+        <v>0.1655629</v>
+      </c>
       <c r="ZL138">
         <v>0.2506402</v>
       </c>
@@ -86063,6 +86330,9 @@
       <c r="ACX138">
         <v>0.5291005</v>
       </c>
+      <c r="ADN138">
+        <v>0.8385744000000001</v>
+      </c>
       <c r="ADP138">
         <v>0.4789946</v>
       </c>
@@ -86221,6 +86491,9 @@
       </c>
       <c r="AJA138">
         <v>0.1587302</v>
+      </c>
+      <c r="AJB138">
+        <v>2.3035136</v>
       </c>
     </row>
     <row r="139" spans="1:938">
@@ -86353,6 +86626,9 @@
       <c r="DD139">
         <v>0.1955864</v>
       </c>
+      <c r="DE139">
+        <v>1.3302034</v>
+      </c>
       <c r="DK139">
         <v>0.4045307</v>
       </c>
@@ -86362,6 +86638,9 @@
       <c r="DS139">
         <v>1.2620038</v>
       </c>
+      <c r="DU139">
+        <v>0.09578540000000001</v>
+      </c>
       <c r="DW139">
         <v>0.2041621</v>
       </c>
@@ -86542,6 +86821,9 @@
       <c r="JX139">
         <v>0.2086811</v>
       </c>
+      <c r="KA139">
+        <v>0.2962963</v>
+      </c>
       <c r="KB139">
         <v>0.6331639999999999</v>
       </c>
@@ -86764,6 +87046,9 @@
       <c r="RD139">
         <v>0.6676158</v>
       </c>
+      <c r="RG139">
+        <v>0</v>
+      </c>
       <c r="RI139">
         <v>0.9375</v>
       </c>
@@ -86971,6 +87256,9 @@
       <c r="YY139">
         <v>0</v>
       </c>
+      <c r="ZD139">
+        <v>0.1552795</v>
+      </c>
       <c r="ZL139">
         <v>0.2520417</v>
       </c>
@@ -87109,6 +87397,9 @@
       <c r="ACX139">
         <v>0.5291005</v>
       </c>
+      <c r="ADN139">
+        <v>1.4675052</v>
+      </c>
       <c r="ADP139">
         <v>0.2810497</v>
       </c>
@@ -87267,6 +87558,9 @@
       </c>
       <c r="AJA139">
         <v>0.1650165</v>
+      </c>
+      <c r="AJB139">
+        <v>2.9237756</v>
       </c>
     </row>
     <row r="140" spans="1:938">
@@ -87399,6 +87693,9 @@
       <c r="DD140">
         <v>0.1449796</v>
       </c>
+      <c r="DE140">
+        <v>1.3136289</v>
+      </c>
       <c r="DK140">
         <v>0.4045307</v>
       </c>
@@ -87450,6 +87747,9 @@
       <c r="FE140">
         <v>0.1725808</v>
       </c>
+      <c r="FF140">
+        <v>0.1783265</v>
+      </c>
       <c r="FG140">
         <v>0.5900723</v>
       </c>
@@ -87585,6 +87885,9 @@
       <c r="JX140">
         <v>0.4661017</v>
       </c>
+      <c r="KA140">
+        <v>0.3053435</v>
+      </c>
       <c r="KB140">
         <v>0.5067544</v>
       </c>
@@ -87621,6 +87924,9 @@
       <c r="LR140">
         <v>0.1515152</v>
       </c>
+      <c r="LU140">
+        <v>1.3959391</v>
+      </c>
       <c r="LW140">
         <v>0.944206</v>
       </c>
@@ -87804,6 +88110,9 @@
       <c r="RD140">
         <v>0.7986018</v>
       </c>
+      <c r="RG140">
+        <v>0</v>
+      </c>
       <c r="RI140">
         <v>0.9375</v>
       </c>
@@ -88149,6 +88458,9 @@
       <c r="ACX140">
         <v>0.5128205</v>
       </c>
+      <c r="ADN140">
+        <v>1.7932489</v>
+      </c>
       <c r="ADP140">
         <v>0.2471544</v>
       </c>
@@ -88304,6 +88616,12 @@
       </c>
       <c r="AIZ140">
         <v>0.3407574</v>
+      </c>
+      <c r="AJA140">
+        <v>0</v>
+      </c>
+      <c r="AJB140">
+        <v>3.4062284</v>
       </c>
     </row>
     <row r="141" spans="1:938">
@@ -88421,6 +88739,9 @@
       <c r="CR141">
         <v>0.1068376</v>
       </c>
+      <c r="CS141">
+        <v>0.6020278999999999</v>
+      </c>
       <c r="CT141">
         <v>0.7502518</v>
       </c>
@@ -88433,6 +88754,9 @@
       <c r="DD141">
         <v>0.1481524</v>
       </c>
+      <c r="DE141">
+        <v>1.3536379</v>
+      </c>
       <c r="DK141">
         <v>0.1731602</v>
       </c>
@@ -88484,6 +88808,9 @@
       <c r="FE141">
         <v>0.2641948</v>
       </c>
+      <c r="FF141">
+        <v>0.1820728</v>
+      </c>
       <c r="FG141">
         <v>0.6328781999999999</v>
       </c>
@@ -88619,6 +88946,9 @@
       <c r="JX141">
         <v>0.4537205</v>
       </c>
+      <c r="KA141">
+        <v>0.2816901</v>
+      </c>
       <c r="KB141">
         <v>0.5183546999999999</v>
       </c>
@@ -88655,6 +88985,9 @@
       <c r="LR141">
         <v>0.1557632</v>
       </c>
+      <c r="LU141">
+        <v>1.7073171</v>
+      </c>
       <c r="LW141">
         <v>0.990991</v>
       </c>
@@ -88829,12 +89162,18 @@
       <c r="QY141">
         <v>0.1026586</v>
       </c>
+      <c r="RA141">
+        <v>0.9306261</v>
+      </c>
       <c r="RB141">
         <v>0.3724957</v>
       </c>
       <c r="RD141">
         <v>0.760278</v>
       </c>
+      <c r="RG141">
+        <v>0</v>
+      </c>
       <c r="RI141">
         <v>0.5298913</v>
       </c>
@@ -89335,6 +89674,12 @@
       </c>
       <c r="AIZ141">
         <v>0.2786656</v>
+      </c>
+      <c r="AJA141">
+        <v>0</v>
+      </c>
+      <c r="AJB141">
+        <v>3.3690266</v>
       </c>
     </row>
     <row r="142" spans="1:938">
@@ -89452,6 +89797,9 @@
       <c r="CR142">
         <v>0.1128668</v>
       </c>
+      <c r="CS142">
+        <v>0.5997475</v>
+      </c>
       <c r="CT142">
         <v>1.0390295</v>
       </c>
@@ -89464,6 +89812,9 @@
       <c r="DD142">
         <v>0.1212066</v>
       </c>
+      <c r="DE142">
+        <v>0.8333333000000001</v>
+      </c>
       <c r="DK142">
         <v>0.1740644</v>
       </c>
@@ -89515,6 +89866,9 @@
       <c r="FE142">
         <v>0.4015466</v>
       </c>
+      <c r="FF142">
+        <v>0.1900585</v>
+      </c>
       <c r="FG142">
         <v>0.6332772</v>
       </c>
@@ -89650,6 +90004,9 @@
       <c r="JX142">
         <v>0.4655493</v>
       </c>
+      <c r="KA142">
+        <v>0</v>
+      </c>
       <c r="KB142">
         <v>0.5223751</v>
       </c>
@@ -89686,6 +90043,9 @@
       <c r="LR142">
         <v>0</v>
       </c>
+      <c r="LU142">
+        <v>1.5</v>
+      </c>
       <c r="LW142">
         <v>1.0180995</v>
       </c>
@@ -89729,7 +90089,7 @@
         <v>0.3603604</v>
       </c>
       <c r="MX142">
-        <v>0.09523810000000001</v>
+        <v>0.0947867</v>
       </c>
       <c r="MZ142">
         <v>0.3333275</v>
@@ -89860,6 +90220,9 @@
       <c r="QY142">
         <v>0.1073351</v>
       </c>
+      <c r="RA142">
+        <v>2.0425429</v>
+      </c>
       <c r="RB142">
         <v>0.3739451</v>
       </c>
@@ -89894,7 +90257,7 @@
         <v>0.2379441</v>
       </c>
       <c r="SG142">
-        <v>0.5088294</v>
+        <v>0.5087107</v>
       </c>
       <c r="SH142">
         <v>0.4907528</v>
@@ -90182,7 +90545,7 @@
         <v>0.1998992</v>
       </c>
       <c r="ACG142">
-        <v>0.1749606</v>
+        <v>0.1748752</v>
       </c>
       <c r="ACI142">
         <v>0.2075154</v>
@@ -90366,16 +90729,5205 @@
       </c>
       <c r="AIZ142">
         <v>0.3141005</v>
+      </c>
+      <c r="AJA142">
+        <v>0</v>
+      </c>
+      <c r="AJB142">
+        <v>3.8344788</v>
       </c>
     </row>
     <row r="143" spans="1:938">
       <c r="A143" t="s">
         <v>1080</v>
       </c>
+      <c r="D143">
+        <v>1.4066163</v>
+      </c>
+      <c r="H143">
+        <v>0.1938774</v>
+      </c>
+      <c r="J143">
+        <v>0.4166667</v>
+      </c>
+      <c r="K143">
+        <v>0.1039501</v>
+      </c>
+      <c r="L143">
+        <v>0.115835</v>
+      </c>
+      <c r="P143">
+        <v>0.1798497</v>
+      </c>
+      <c r="R143">
+        <v>0.7522124</v>
+      </c>
+      <c r="U143">
+        <v>0.4449369</v>
+      </c>
+      <c r="X143">
+        <v>0.3067485</v>
+      </c>
+      <c r="Z143">
+        <v>1.1443381</v>
+      </c>
+      <c r="AB143">
+        <v>0.6511761</v>
+      </c>
+      <c r="AD143">
+        <v>0.4464816</v>
+      </c>
+      <c r="AG143">
+        <v>0.1003482</v>
+      </c>
+      <c r="AI143">
+        <v>0.2582776</v>
+      </c>
+      <c r="AN143">
+        <v>0.2478293</v>
+      </c>
+      <c r="AV143">
+        <v>0.4458162</v>
+      </c>
+      <c r="AW143">
+        <v>0.4170243</v>
+      </c>
+      <c r="AX143">
+        <v>0.6490135</v>
+      </c>
+      <c r="BB143">
+        <v>0.4504505</v>
+      </c>
+      <c r="BC143">
+        <v>0.3164691</v>
+      </c>
+      <c r="BF143">
+        <v>0.6044243</v>
+      </c>
+      <c r="BH143">
+        <v>0.4295441</v>
+      </c>
+      <c r="BI143">
+        <v>0.3227154</v>
+      </c>
+      <c r="BJ143">
+        <v>0.1204819</v>
+      </c>
+      <c r="BM143">
+        <v>0.1212121</v>
+      </c>
+      <c r="BR143">
+        <v>0.4999843</v>
+      </c>
+      <c r="BS143">
+        <v>0.1789976</v>
+      </c>
+      <c r="BT143">
+        <v>0.4732337</v>
+      </c>
+      <c r="BW143">
+        <v>0.3807645</v>
+      </c>
+      <c r="BY143">
+        <v>0</v>
+      </c>
+      <c r="CC143">
+        <v>0.3205128</v>
+      </c>
+      <c r="CE143">
+        <v>0.122549</v>
+      </c>
+      <c r="CL143">
+        <v>0.2544529</v>
+      </c>
+      <c r="CM143">
+        <v>0.049482</v>
+      </c>
+      <c r="CN143">
+        <v>0.4727081</v>
+      </c>
+      <c r="CO143">
+        <v>0.1237624</v>
+      </c>
+      <c r="CR143">
+        <v>0.1179245</v>
+      </c>
+      <c r="CS143">
+        <v>0.4734848</v>
+      </c>
+      <c r="CT143">
+        <v>1.1520468</v>
+      </c>
+      <c r="CY143">
+        <v>0.4436599</v>
+      </c>
+      <c r="DC143">
+        <v>0.2618637</v>
+      </c>
+      <c r="DD143">
+        <v>0.127191</v>
+      </c>
+      <c r="DK143">
+        <v>0.1763668</v>
+      </c>
+      <c r="DN143">
+        <v>0.1183728</v>
+      </c>
+      <c r="DS143">
+        <v>1.4726967</v>
+      </c>
+      <c r="DW143">
+        <v>0.2273236</v>
+      </c>
+      <c r="DZ143">
+        <v>0.2141328</v>
+      </c>
+      <c r="EA143">
+        <v>0.5524862</v>
+      </c>
+      <c r="EK143">
+        <v>0.2041228</v>
+      </c>
+      <c r="EL143">
+        <v>0.424714</v>
+      </c>
+      <c r="EM143">
+        <v>0.9887006</v>
+      </c>
+      <c r="EN143">
+        <v>0.2777778</v>
+      </c>
+      <c r="ER143">
+        <v>0.1111111</v>
+      </c>
+      <c r="ET143">
+        <v>0.8740888999999999</v>
+      </c>
+      <c r="EZ143">
+        <v>0.3174603</v>
+      </c>
+      <c r="FA143">
+        <v>0.4036281</v>
+      </c>
+      <c r="FB143">
+        <v>0.2527291</v>
+      </c>
+      <c r="FD143">
+        <v>1.034142</v>
+      </c>
+      <c r="FE143">
+        <v>0.4044888</v>
+      </c>
+      <c r="FF143">
+        <v>0.1618123</v>
+      </c>
+      <c r="FG143">
+        <v>0.7663295</v>
+      </c>
+      <c r="FH143">
+        <v>0.7782101</v>
+      </c>
+      <c r="FI143">
+        <v>0.3013775</v>
+      </c>
+      <c r="FJ143">
+        <v>0.1587302</v>
+      </c>
+      <c r="FL143">
+        <v>0.3760591</v>
+      </c>
+      <c r="FO143">
+        <v>0.3755869</v>
+      </c>
+      <c r="FR143">
+        <v>0.9707904000000001</v>
+      </c>
+      <c r="FS143">
+        <v>0.2883514</v>
+      </c>
+      <c r="FY143">
+        <v>0.7223741</v>
+      </c>
+      <c r="GB143">
+        <v>1.017867</v>
+      </c>
+      <c r="GC143">
+        <v>0.299174</v>
+      </c>
+      <c r="GD143">
+        <v>0.06973500000000001</v>
+      </c>
+      <c r="GE143">
+        <v>0.5118876999999999</v>
+      </c>
+      <c r="GF143">
+        <v>0.9366279</v>
+      </c>
+      <c r="GJ143">
+        <v>0.2790768</v>
+      </c>
+      <c r="GS143">
+        <v>0.928579</v>
+      </c>
+      <c r="GV143">
+        <v>0.4533333</v>
+      </c>
+      <c r="HA143">
+        <v>0.4864436</v>
+      </c>
+      <c r="HF143">
+        <v>0.6542939</v>
+      </c>
+      <c r="HH143">
+        <v>2.0134228</v>
+      </c>
+      <c r="HK143">
+        <v>0.7125434</v>
+      </c>
+      <c r="HL143">
+        <v>0.3285246</v>
+      </c>
+      <c r="HN143">
+        <v>0.3068541</v>
+      </c>
+      <c r="HO143">
+        <v>1.099537</v>
+      </c>
+      <c r="HP143">
+        <v>0.5691057</v>
+      </c>
+      <c r="HT143">
+        <v>0.5401939</v>
+      </c>
+      <c r="HV143">
+        <v>0.3368025</v>
+      </c>
+      <c r="HX143">
+        <v>0.7629914</v>
+      </c>
+      <c r="HY143">
+        <v>0.2032022</v>
+      </c>
+      <c r="IC143">
+        <v>0.7437568</v>
+      </c>
+      <c r="IE143">
+        <v>0.6785714</v>
+      </c>
+      <c r="IH143">
+        <v>0.6849315</v>
+      </c>
+      <c r="II143">
+        <v>0.1494421</v>
+      </c>
+      <c r="IN143">
+        <v>0.3822049</v>
+      </c>
+      <c r="IR143">
+        <v>0.5206866999999999</v>
+      </c>
+      <c r="IS143">
+        <v>0.0324675</v>
+      </c>
+      <c r="IZ143">
+        <v>0</v>
+      </c>
+      <c r="JB143">
+        <v>1.0436137</v>
+      </c>
+      <c r="JF143">
+        <v>0.3571429</v>
+      </c>
+      <c r="JG143">
+        <v>0.4779172</v>
+      </c>
+      <c r="JK143">
+        <v>0.181869</v>
+      </c>
+      <c r="JO143">
+        <v>0.2326729</v>
+      </c>
+      <c r="JR143">
+        <v>0.2785023</v>
+      </c>
+      <c r="JS143">
+        <v>0.297619</v>
+      </c>
+      <c r="JX143">
+        <v>0.5870445</v>
+      </c>
+      <c r="KB143">
+        <v>0.54384</v>
+      </c>
+      <c r="KC143">
+        <v>1.0061059</v>
+      </c>
+      <c r="KI143">
+        <v>0.1492695</v>
+      </c>
+      <c r="KJ143">
+        <v>0.7335827</v>
+      </c>
+      <c r="KO143">
+        <v>0.2553011</v>
+      </c>
+      <c r="KV143">
+        <v>0.539886</v>
+      </c>
+      <c r="KW143">
+        <v>0.8506191</v>
+      </c>
+      <c r="LD143">
+        <v>0.5007145</v>
+      </c>
+      <c r="LG143">
+        <v>0.2012712</v>
+      </c>
+      <c r="LH143">
+        <v>0.5012531</v>
+      </c>
+      <c r="LO143">
+        <v>0.1219512</v>
+      </c>
+      <c r="LR143">
+        <v>0</v>
+      </c>
+      <c r="LU143">
+        <v>0.9259259</v>
+      </c>
+      <c r="LW143">
+        <v>0.6009615</v>
+      </c>
+      <c r="LX143">
+        <v>0</v>
+      </c>
+      <c r="LY143">
+        <v>0.1437126</v>
+      </c>
+      <c r="MA143">
+        <v>0.2201326</v>
+      </c>
+      <c r="MC143">
+        <v>0</v>
+      </c>
+      <c r="ME143">
+        <v>0</v>
+      </c>
+      <c r="MF143">
+        <v>0.4171604</v>
+      </c>
+      <c r="MG143">
+        <v>0.4519928</v>
+      </c>
+      <c r="MI143">
+        <v>0.3469281</v>
+      </c>
+      <c r="ML143">
+        <v>0.1203913</v>
+      </c>
+      <c r="MN143">
+        <v>0.5459203</v>
+      </c>
+      <c r="MS143">
+        <v>0.6180472</v>
+      </c>
+      <c r="MU143">
+        <v>0.4198966</v>
+      </c>
+      <c r="MW143">
+        <v>0.3236246</v>
+      </c>
+      <c r="MX143">
+        <v>0.2195122</v>
+      </c>
+      <c r="MZ143">
+        <v>0.2137148</v>
+      </c>
+      <c r="NC143">
+        <v>0.3082388</v>
+      </c>
+      <c r="NE143">
+        <v>0.7795699</v>
+      </c>
+      <c r="NM143">
+        <v>0.6526162</v>
+      </c>
+      <c r="NP143">
+        <v>0.4531902</v>
+      </c>
+      <c r="NQ143">
+        <v>1.0714286</v>
+      </c>
+      <c r="NT143">
+        <v>0.2222222</v>
+      </c>
+      <c r="NW143">
+        <v>0.7142857</v>
+      </c>
+      <c r="NY143">
+        <v>0.506993</v>
+      </c>
+      <c r="NZ143">
+        <v>0.9635475</v>
+      </c>
+      <c r="OD143">
+        <v>0.2210557</v>
+      </c>
+      <c r="OE143">
+        <v>0.2923938</v>
+      </c>
+      <c r="OJ143">
+        <v>0.5623722</v>
+      </c>
+      <c r="OL143">
+        <v>0.4606652</v>
+      </c>
+      <c r="ON143">
+        <v>0.7142857</v>
+      </c>
+      <c r="OP143">
+        <v>0.286533</v>
+      </c>
+      <c r="OQ143">
+        <v>0.2057613</v>
+      </c>
+      <c r="OR143">
+        <v>0.5773906</v>
+      </c>
+      <c r="OT143">
+        <v>0.813253</v>
+      </c>
+      <c r="OV143">
+        <v>0.7198917</v>
+      </c>
+      <c r="OX143">
+        <v>0.601557</v>
+      </c>
+      <c r="PB143">
+        <v>0.3217503</v>
+      </c>
+      <c r="PG143">
+        <v>0.1937984</v>
+      </c>
+      <c r="PJ143">
+        <v>0.0632511</v>
+      </c>
+      <c r="PK143">
+        <v>0.0720461</v>
+      </c>
+      <c r="PL143">
+        <v>0.8860931</v>
+      </c>
+      <c r="PM143">
+        <v>0.5180641</v>
+      </c>
+      <c r="PP143">
+        <v>0.3189921</v>
+      </c>
+      <c r="PR143">
+        <v>0.5402161</v>
+      </c>
+      <c r="PS143">
+        <v>0.2988317</v>
+      </c>
+      <c r="PY143">
+        <v>1.0715877</v>
+      </c>
+      <c r="QD143">
+        <v>0.2309671</v>
+      </c>
+      <c r="QE143">
+        <v>0.6622262</v>
+      </c>
+      <c r="QF143">
+        <v>0.4040404</v>
+      </c>
+      <c r="QK143">
+        <v>0.5234285</v>
+      </c>
+      <c r="QN143">
+        <v>0.3614397</v>
+      </c>
+      <c r="QO143">
+        <v>0.7159772</v>
+      </c>
+      <c r="QP143">
+        <v>0.6296984</v>
+      </c>
+      <c r="QS143">
+        <v>0.7236228</v>
+      </c>
+      <c r="QU143">
+        <v>1.6448326</v>
+      </c>
+      <c r="QV143">
+        <v>0.6848604</v>
+      </c>
+      <c r="QX143">
+        <v>0.3995271</v>
+      </c>
+      <c r="QY143">
+        <v>0.0800872</v>
+      </c>
+      <c r="RA143">
+        <v>2.1999122</v>
+      </c>
+      <c r="RB143">
+        <v>0.2914094</v>
+      </c>
+      <c r="RD143">
+        <v>0.7228168</v>
+      </c>
+      <c r="RI143">
+        <v>0.5993691</v>
+      </c>
+      <c r="RL143">
+        <v>0.2547771</v>
+      </c>
+      <c r="RQ143">
+        <v>0.375</v>
+      </c>
+      <c r="RT143">
+        <v>0.1742339</v>
+      </c>
+      <c r="RV143">
+        <v>0.2192982</v>
+      </c>
+      <c r="RX143">
+        <v>0.5246375</v>
+      </c>
+      <c r="RY143">
+        <v>0.2375516</v>
+      </c>
+      <c r="SA143">
+        <v>0.0855432</v>
+      </c>
+      <c r="SD143">
+        <v>0.3509741</v>
+      </c>
+      <c r="SG143">
+        <v>0.5833201</v>
+      </c>
+      <c r="SH143">
+        <v>0.5063451</v>
+      </c>
+      <c r="SI143">
+        <v>0.5942233</v>
+      </c>
+      <c r="SM143">
+        <v>0.3458498</v>
+      </c>
+      <c r="SO143">
+        <v>0.2440725</v>
+      </c>
+      <c r="SP143">
+        <v>0.2222222</v>
+      </c>
+      <c r="SR143">
+        <v>0.2284538</v>
+      </c>
+      <c r="SW143">
+        <v>0.124904</v>
+      </c>
+      <c r="SX143">
+        <v>0.5052265</v>
+      </c>
+      <c r="TS143">
+        <v>0.8248021</v>
+      </c>
+      <c r="TX143">
+        <v>0.2973211</v>
+      </c>
+      <c r="TY143">
+        <v>0.2641547</v>
+      </c>
+      <c r="UA143">
+        <v>0.5171209</v>
+      </c>
+      <c r="UE143">
+        <v>0.3776523</v>
+      </c>
+      <c r="UF143">
+        <v>0.608365</v>
+      </c>
+      <c r="UH143">
+        <v>0.483683</v>
+      </c>
+      <c r="UI143">
+        <v>0.1897019</v>
+      </c>
+      <c r="UK143">
+        <v>0.4126254</v>
+      </c>
+      <c r="UN143">
+        <v>0.3293502</v>
+      </c>
+      <c r="UP143">
+        <v>0.7234727</v>
+      </c>
+      <c r="US143">
+        <v>0.4495235</v>
+      </c>
+      <c r="UT143">
+        <v>0.3539408</v>
+      </c>
+      <c r="UU143">
+        <v>0.2873563</v>
+      </c>
+      <c r="UV143">
+        <v>0.06435009999999999</v>
+      </c>
+      <c r="UW143">
+        <v>0.8733308</v>
+      </c>
+      <c r="VA143">
+        <v>0.3092784</v>
+      </c>
+      <c r="VB143">
+        <v>0.469738</v>
+      </c>
+      <c r="VO143">
+        <v>0.08726</v>
+      </c>
+      <c r="VP143">
+        <v>0.3246753</v>
+      </c>
+      <c r="VS143">
+        <v>0.5441542</v>
+      </c>
+      <c r="VU143">
+        <v>0.8787197</v>
+      </c>
+      <c r="VW143">
+        <v>0.7968127</v>
+      </c>
+      <c r="VX143">
+        <v>1.0549391</v>
+      </c>
+      <c r="VY143">
+        <v>0.4114971</v>
+      </c>
+      <c r="WB143">
+        <v>0.6546275</v>
+      </c>
+      <c r="WF143">
+        <v>0.0650655</v>
+      </c>
+      <c r="WG143">
+        <v>0.6702908</v>
+      </c>
+      <c r="WL143">
+        <v>0.4203999</v>
+      </c>
+      <c r="WM143">
+        <v>0.545977</v>
+      </c>
+      <c r="WQ143">
+        <v>0.6155031</v>
+      </c>
+      <c r="WU143">
+        <v>0.0524146</v>
+      </c>
+      <c r="WW143">
+        <v>0.4321488</v>
+      </c>
+      <c r="WY143">
+        <v>0.6040991999999999</v>
+      </c>
+      <c r="WZ143">
+        <v>0.4561178</v>
+      </c>
+      <c r="XD143">
+        <v>0.6432183</v>
+      </c>
+      <c r="XF143">
+        <v>0.2166575</v>
+      </c>
+      <c r="XG143">
+        <v>0.3065322</v>
+      </c>
+      <c r="XL143">
+        <v>0.3870476</v>
+      </c>
+      <c r="XM143">
+        <v>0.4101077</v>
+      </c>
+      <c r="XT143">
+        <v>0.3591954</v>
+      </c>
+      <c r="XV143">
+        <v>0.4545188</v>
+      </c>
+      <c r="YB143">
+        <v>0.4303275</v>
+      </c>
+      <c r="YD143">
+        <v>0.045977</v>
+      </c>
+      <c r="YH143">
+        <v>0.2415459</v>
+      </c>
+      <c r="YN143">
+        <v>0.5789715</v>
+      </c>
+      <c r="YO143">
+        <v>0.2592883</v>
+      </c>
+      <c r="YQ143">
+        <v>0.2304748</v>
+      </c>
+      <c r="YR143">
+        <v>0.7381478</v>
+      </c>
+      <c r="YX143">
+        <v>0.2021752</v>
+      </c>
+      <c r="YY143">
+        <v>0.3921569</v>
+      </c>
+      <c r="ZL143">
+        <v>0.1365167</v>
+      </c>
+      <c r="ZM143">
+        <v>0.3724681</v>
+      </c>
+      <c r="ZO143">
+        <v>0.1210654</v>
+      </c>
+      <c r="ZR143">
+        <v>0.1422727</v>
+      </c>
+      <c r="ZS143">
+        <v>0.6849315</v>
+      </c>
+      <c r="ZV143">
+        <v>0.2883333</v>
+      </c>
+      <c r="ZW143">
+        <v>0.5451442</v>
+      </c>
+      <c r="ZX143">
+        <v>0.0536193</v>
+      </c>
+      <c r="ZZ143">
+        <v>0.528004</v>
+      </c>
+      <c r="AAB143">
+        <v>0.2964427</v>
+      </c>
+      <c r="AAC143">
+        <v>0.2818939</v>
+      </c>
+      <c r="AAD143">
+        <v>1.0289855</v>
+      </c>
+      <c r="AAF143">
+        <v>0.1007487</v>
+      </c>
+      <c r="AAH143">
+        <v>0.2093802</v>
+      </c>
+      <c r="AAJ143">
+        <v>0.1924677</v>
+      </c>
+      <c r="AAM143">
+        <v>0.3215251</v>
+      </c>
+      <c r="AAP143">
+        <v>0.5009251</v>
+      </c>
+      <c r="AAR143">
+        <v>0.2708142</v>
+      </c>
+      <c r="AAU143">
+        <v>0.2753304</v>
+      </c>
+      <c r="AAV143">
+        <v>0.2759424</v>
+      </c>
+      <c r="AAW143">
+        <v>0</v>
+      </c>
+      <c r="ABA143">
+        <v>0.2906977</v>
+      </c>
+      <c r="ABC143">
+        <v>0.6613757</v>
+      </c>
+      <c r="ABJ143">
+        <v>0.2409005</v>
+      </c>
+      <c r="ABL143">
+        <v>0.5392765</v>
+      </c>
+      <c r="ABM143">
+        <v>0.1851852</v>
+      </c>
+      <c r="ABN143">
+        <v>0.9832842000000001</v>
+      </c>
+      <c r="ABP143">
+        <v>0.2243953</v>
+      </c>
+      <c r="ABT143">
+        <v>0.5395131</v>
+      </c>
+      <c r="ABV143">
+        <v>0.1673303</v>
+      </c>
+      <c r="ABW143">
+        <v>0.2246589</v>
+      </c>
+      <c r="ABX143">
+        <v>0.3465248</v>
+      </c>
+      <c r="ABY143">
+        <v>0.1778656</v>
+      </c>
+      <c r="ABZ143">
+        <v>0.8962441</v>
+      </c>
+      <c r="ACA143">
+        <v>0.2916389</v>
+      </c>
+      <c r="ACE143">
+        <v>0.1967219</v>
+      </c>
+      <c r="ACG143">
+        <v>0.1312065</v>
+      </c>
+      <c r="ACI143">
+        <v>0.2099835</v>
+      </c>
+      <c r="ACJ143">
+        <v>0</v>
+      </c>
+      <c r="ACK143">
+        <v>0.094697</v>
+      </c>
+      <c r="ACM143">
+        <v>0.3482661</v>
+      </c>
+      <c r="ACN143">
+        <v>0.2374616</v>
+      </c>
+      <c r="ACP143">
+        <v>0.8806597</v>
+      </c>
+      <c r="ACU143">
+        <v>0.3705668</v>
+      </c>
+      <c r="ACW143">
+        <v>0.2134617</v>
+      </c>
+      <c r="ACX143">
+        <v>0.297619</v>
+      </c>
+      <c r="ADP143">
+        <v>0.2695507</v>
+      </c>
+      <c r="ADR143">
+        <v>1.2252854</v>
+      </c>
+      <c r="ADU143">
+        <v>1.0294118</v>
+      </c>
+      <c r="ADV143">
+        <v>0.0469925</v>
+      </c>
+      <c r="AEA143">
+        <v>0.6131046999999999</v>
+      </c>
+      <c r="AEB143">
+        <v>0.2941185</v>
+      </c>
+      <c r="AEF143">
+        <v>0.1898274</v>
+      </c>
+      <c r="AEG143">
+        <v>0.3056769</v>
+      </c>
+      <c r="AEH143">
+        <v>0.3523297</v>
+      </c>
+      <c r="AEI143">
+        <v>0.3077056</v>
+      </c>
+      <c r="AEJ143">
+        <v>0.09157510000000001</v>
+      </c>
+      <c r="AEL143">
+        <v>0.318218</v>
+      </c>
+      <c r="AEU143">
+        <v>0.2615473</v>
+      </c>
+      <c r="AEZ143">
+        <v>0.5458769</v>
+      </c>
+      <c r="AFD143">
+        <v>0.3066812</v>
+      </c>
+      <c r="AFG143">
+        <v>0.3789247</v>
+      </c>
+      <c r="AFH143">
+        <v>0.6439338</v>
+      </c>
+      <c r="AFK143">
+        <v>0.7063492</v>
+      </c>
+      <c r="AFL143">
+        <v>0.3921569</v>
+      </c>
+      <c r="AFN143">
+        <v>0</v>
+      </c>
+      <c r="AFT143">
+        <v>0.3576731</v>
+      </c>
+      <c r="AFU143">
+        <v>0.46369</v>
+      </c>
+      <c r="AFX143">
+        <v>0.3795721</v>
+      </c>
+      <c r="AGA143">
+        <v>0.7191392</v>
+      </c>
+      <c r="AGC143">
+        <v>0.5655787</v>
+      </c>
+      <c r="AGE143">
+        <v>0.4939432</v>
+      </c>
+      <c r="AGF143">
+        <v>1.0154062</v>
+      </c>
+      <c r="AGG143">
+        <v>0.3418803</v>
+      </c>
+      <c r="AGL143">
+        <v>0.3267974</v>
+      </c>
+      <c r="AGM143">
+        <v>0</v>
+      </c>
+      <c r="AGO143">
+        <v>0.1089325</v>
+      </c>
+      <c r="AGP143">
+        <v>0.2538709</v>
+      </c>
+      <c r="AGV143">
+        <v>1.7133956</v>
+      </c>
+      <c r="AHA143">
+        <v>0.4257631</v>
+      </c>
+      <c r="AHB143">
+        <v>0.6296855</v>
+      </c>
+      <c r="AHD143">
+        <v>0.3628118</v>
+      </c>
+      <c r="AHH143">
+        <v>0.2038043</v>
+      </c>
+      <c r="AHN143">
+        <v>0.2951931</v>
+      </c>
+      <c r="AHP143">
+        <v>0.4585153</v>
+      </c>
+      <c r="AHS143">
+        <v>1.0770975</v>
+      </c>
+      <c r="AHU143">
+        <v>0.5186722</v>
+      </c>
+      <c r="AHX143">
+        <v>0</v>
+      </c>
+      <c r="AIB143">
+        <v>0.7281552999999999</v>
+      </c>
+      <c r="AID143">
+        <v>0.6064114</v>
+      </c>
+      <c r="AIE143">
+        <v>0.6859756</v>
+      </c>
+      <c r="AIF143">
+        <v>0.3826531</v>
+      </c>
+      <c r="AII143">
+        <v>0.5011922</v>
+      </c>
+      <c r="AIP143">
+        <v>0.3155766</v>
+      </c>
+      <c r="AIT143">
+        <v>0.2180319</v>
+      </c>
+      <c r="AIV143">
+        <v>0.8681298</v>
+      </c>
+      <c r="AIY143">
+        <v>0.3083435</v>
+      </c>
+      <c r="AIZ143">
+        <v>0.3161729</v>
+      </c>
+      <c r="AJA143">
+        <v>0.1736111</v>
+      </c>
     </row>
     <row r="144" spans="1:938">
       <c r="A144" t="s">
         <v>1081</v>
+      </c>
+      <c r="D144">
+        <v>1.0653409</v>
+      </c>
+      <c r="H144">
+        <v>0.1384996</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0.1152074</v>
+      </c>
+      <c r="L144">
+        <v>0.1936259</v>
+      </c>
+      <c r="P144">
+        <v>0.1293052</v>
+      </c>
+      <c r="R144">
+        <v>0.5128205</v>
+      </c>
+      <c r="U144">
+        <v>0.3529327</v>
+      </c>
+      <c r="X144">
+        <v>0.3785489</v>
+      </c>
+      <c r="Z144">
+        <v>1.1581921</v>
+      </c>
+      <c r="AB144">
+        <v>0.5573418999999999</v>
+      </c>
+      <c r="AD144">
+        <v>0.6214803</v>
+      </c>
+      <c r="AG144">
+        <v>0.0999463</v>
+      </c>
+      <c r="AI144">
+        <v>0.0494584</v>
+      </c>
+      <c r="AN144">
+        <v>0.2372792</v>
+      </c>
+      <c r="AV144">
+        <v>0.3177966</v>
+      </c>
+      <c r="AW144">
+        <v>0.4919679</v>
+      </c>
+      <c r="AX144">
+        <v>0.1906318</v>
+      </c>
+      <c r="BB144">
+        <v>0.4666667</v>
+      </c>
+      <c r="BC144">
+        <v>0.4487366</v>
+      </c>
+      <c r="BF144">
+        <v>0.6109376</v>
+      </c>
+      <c r="BH144">
+        <v>0.3825204</v>
+      </c>
+      <c r="BI144">
+        <v>0.3304682</v>
+      </c>
+      <c r="BJ144">
+        <v>0.1269036</v>
+      </c>
+      <c r="BM144">
+        <v>0.1207729</v>
+      </c>
+      <c r="BR144">
+        <v>0.5684172</v>
+      </c>
+      <c r="BS144">
+        <v>0.436409</v>
+      </c>
+      <c r="BT144">
+        <v>0.5586871</v>
+      </c>
+      <c r="BW144">
+        <v>0.4025543</v>
+      </c>
+      <c r="BY144">
+        <v>0.3717472</v>
+      </c>
+      <c r="CC144">
+        <v>0.3412969</v>
+      </c>
+      <c r="CE144">
+        <v>0.1333333</v>
+      </c>
+      <c r="CL144">
+        <v>0.4320988</v>
+      </c>
+      <c r="CM144">
+        <v>0.0526462</v>
+      </c>
+      <c r="CN144">
+        <v>0.5763819</v>
+      </c>
+      <c r="CO144">
+        <v>0.1256281</v>
+      </c>
+      <c r="CR144">
+        <v>0</v>
+      </c>
+      <c r="CS144">
+        <v>0.4789272</v>
+      </c>
+      <c r="CT144">
+        <v>1.1643026</v>
+      </c>
+      <c r="CY144">
+        <v>0.6739113</v>
+      </c>
+      <c r="DC144">
+        <v>0.2630074</v>
+      </c>
+      <c r="DD144">
+        <v>0.1305205</v>
+      </c>
+      <c r="DK144">
+        <v>0.1796945</v>
+      </c>
+      <c r="DN144">
+        <v>0.1709145</v>
+      </c>
+      <c r="DS144">
+        <v>1.8756789</v>
+      </c>
+      <c r="DW144">
+        <v>0.1468853</v>
+      </c>
+      <c r="DZ144">
+        <v>0.3051106</v>
+      </c>
+      <c r="EA144">
+        <v>0.5671078000000001</v>
+      </c>
+      <c r="EK144">
+        <v>0.2086859</v>
+      </c>
+      <c r="EL144">
+        <v>0.5182932</v>
+      </c>
+      <c r="EM144">
+        <v>1.3043478</v>
+      </c>
+      <c r="EN144">
+        <v>0.286123</v>
+      </c>
+      <c r="ER144">
+        <v>0.1190476</v>
+      </c>
+      <c r="ET144">
+        <v>0.7072946</v>
+      </c>
+      <c r="EZ144">
+        <v>0.3278689</v>
+      </c>
+      <c r="FA144">
+        <v>0.5125338</v>
+      </c>
+      <c r="FB144">
+        <v>0.1968226</v>
+      </c>
+      <c r="FD144">
+        <v>0.9742656</v>
+      </c>
+      <c r="FE144">
+        <v>0.4653064</v>
+      </c>
+      <c r="FF144">
+        <v>0.1642036</v>
+      </c>
+      <c r="FG144">
+        <v>0.7022062</v>
+      </c>
+      <c r="FH144">
+        <v>1.0727969</v>
+      </c>
+      <c r="FI144">
+        <v>0.3101369</v>
+      </c>
+      <c r="FJ144">
+        <v>0.1609195</v>
+      </c>
+      <c r="FL144">
+        <v>0.434387</v>
+      </c>
+      <c r="FO144">
+        <v>0.5743879</v>
+      </c>
+      <c r="FR144">
+        <v>1.0501859</v>
+      </c>
+      <c r="FS144">
+        <v>0.2765519</v>
+      </c>
+      <c r="FY144">
+        <v>0.9426848</v>
+      </c>
+      <c r="GB144">
+        <v>1.3514102</v>
+      </c>
+      <c r="GC144">
+        <v>0.2610335</v>
+      </c>
+      <c r="GD144">
+        <v>0</v>
+      </c>
+      <c r="GE144">
+        <v>0.5149877</v>
+      </c>
+      <c r="GF144">
+        <v>0.9380124</v>
+      </c>
+      <c r="GJ144">
+        <v>0.305015</v>
+      </c>
+      <c r="GS144">
+        <v>1.1621993</v>
+      </c>
+      <c r="GV144">
+        <v>0.4748603</v>
+      </c>
+      <c r="HA144">
+        <v>0.4462165</v>
+      </c>
+      <c r="HF144">
+        <v>0.6031913</v>
+      </c>
+      <c r="HH144">
+        <v>2.173913</v>
+      </c>
+      <c r="HK144">
+        <v>0.742295</v>
+      </c>
+      <c r="HL144">
+        <v>0.311858</v>
+      </c>
+      <c r="HN144">
+        <v>0.3226818</v>
+      </c>
+      <c r="HO144">
+        <v>1.0939511</v>
+      </c>
+      <c r="HP144">
+        <v>0.6140350999999999</v>
+      </c>
+      <c r="HT144">
+        <v>0.5030171</v>
+      </c>
+      <c r="HV144">
+        <v>0.3504589</v>
+      </c>
+      <c r="HX144">
+        <v>0.7601632</v>
+      </c>
+      <c r="HY144">
+        <v>0.1492823</v>
+      </c>
+      <c r="IC144">
+        <v>1.5227021</v>
+      </c>
+      <c r="IE144">
+        <v>0.7175227</v>
+      </c>
+      <c r="IH144">
+        <v>0.6726457</v>
+      </c>
+      <c r="II144">
+        <v>0.1880824</v>
+      </c>
+      <c r="IN144">
+        <v>0.3315201</v>
+      </c>
+      <c r="IR144">
+        <v>0.5295549000000001</v>
+      </c>
+      <c r="IS144">
+        <v>0.0325839</v>
+      </c>
+      <c r="IZ144">
+        <v>0.3289474</v>
+      </c>
+      <c r="JB144">
+        <v>0.8300781</v>
+      </c>
+      <c r="JF144">
+        <v>0.8905852</v>
+      </c>
+      <c r="JG144">
+        <v>0.5468026</v>
+      </c>
+      <c r="JK144">
+        <v>0.1873109</v>
+      </c>
+      <c r="JO144">
+        <v>0.1635011</v>
+      </c>
+      <c r="JR144">
+        <v>0.3303187</v>
+      </c>
+      <c r="JS144">
+        <v>0.3220612</v>
+      </c>
+      <c r="JX144">
+        <v>0.7810321</v>
+      </c>
+      <c r="KB144">
+        <v>0.6265209</v>
+      </c>
+      <c r="KC144">
+        <v>0.9323044</v>
+      </c>
+      <c r="KI144">
+        <v>0.2106982</v>
+      </c>
+      <c r="KJ144">
+        <v>0.7542735</v>
+      </c>
+      <c r="KO144">
+        <v>0.2021599</v>
+      </c>
+      <c r="KV144">
+        <v>0.5866964</v>
+      </c>
+      <c r="KW144">
+        <v>0.8349306</v>
+      </c>
+      <c r="LD144">
+        <v>0.4679416</v>
+      </c>
+      <c r="LG144">
+        <v>0.2763795</v>
+      </c>
+      <c r="LH144">
+        <v>0.5333333</v>
+      </c>
+      <c r="LO144">
+        <v>0.1298701</v>
+      </c>
+      <c r="LR144">
+        <v>0.5025126</v>
+      </c>
+      <c r="LU144">
+        <v>0.390625</v>
+      </c>
+      <c r="LW144">
+        <v>1.092233</v>
+      </c>
+      <c r="LX144">
+        <v>0</v>
+      </c>
+      <c r="LY144">
+        <v>0</v>
+      </c>
+      <c r="MA144">
+        <v>0.2120805</v>
+      </c>
+      <c r="MC144">
+        <v>0</v>
+      </c>
+      <c r="ME144">
+        <v>0</v>
+      </c>
+      <c r="MF144">
+        <v>0.4327993</v>
+      </c>
+      <c r="MG144">
+        <v>0.3545226</v>
+      </c>
+      <c r="MI144">
+        <v>0.4469765</v>
+      </c>
+      <c r="ML144">
+        <v>0.1278977</v>
+      </c>
+      <c r="MN144">
+        <v>0.5504520000000001</v>
+      </c>
+      <c r="MS144">
+        <v>0.4886159</v>
+      </c>
+      <c r="MU144">
+        <v>0.2252252</v>
+      </c>
+      <c r="MW144">
+        <v>0.3215434</v>
+      </c>
+      <c r="MX144">
+        <v>0.2419355</v>
+      </c>
+      <c r="MZ144">
+        <v>0.1910406</v>
+      </c>
+      <c r="NC144">
+        <v>0.2124416</v>
+      </c>
+      <c r="NE144">
+        <v>0.8264463</v>
+      </c>
+      <c r="NM144">
+        <v>0.6369861999999999</v>
+      </c>
+      <c r="NP144">
+        <v>0.4614451</v>
+      </c>
+      <c r="NQ144">
+        <v>1.1538462</v>
+      </c>
+      <c r="NT144">
+        <v>0.1912568</v>
+      </c>
+      <c r="NW144">
+        <v>0.7777778</v>
+      </c>
+      <c r="NY144">
+        <v>1.1181818</v>
+      </c>
+      <c r="NZ144">
+        <v>0.9275023999999999</v>
+      </c>
+      <c r="OD144">
+        <v>0.2117709</v>
+      </c>
+      <c r="OE144">
+        <v>0.3693561</v>
+      </c>
+      <c r="OJ144">
+        <v>0.4343105</v>
+      </c>
+      <c r="OL144">
+        <v>0.4224639</v>
+      </c>
+      <c r="ON144">
+        <v>0.707635</v>
+      </c>
+      <c r="OP144">
+        <v>0.3021148</v>
+      </c>
+      <c r="OQ144">
+        <v>0.5010438</v>
+      </c>
+      <c r="OR144">
+        <v>0.7527087</v>
+      </c>
+      <c r="OT144">
+        <v>0.5246914</v>
+      </c>
+      <c r="OV144">
+        <v>0.6963297000000001</v>
+      </c>
+      <c r="OX144">
+        <v>0.6410256</v>
+      </c>
+      <c r="PB144">
+        <v>0.334672</v>
+      </c>
+      <c r="PG144">
+        <v>0.2020202</v>
+      </c>
+      <c r="PJ144">
+        <v>0.0641026</v>
+      </c>
+      <c r="PK144">
+        <v>0.0753012</v>
+      </c>
+      <c r="PL144">
+        <v>0.920073</v>
+      </c>
+      <c r="PM144">
+        <v>0.6552886999999999</v>
+      </c>
+      <c r="PP144">
+        <v>0.1985294</v>
+      </c>
+      <c r="PR144">
+        <v>0.5312869</v>
+      </c>
+      <c r="PS144">
+        <v>0.2106878</v>
+      </c>
+      <c r="PY144">
+        <v>0.891469</v>
+      </c>
+      <c r="QD144">
+        <v>0.3466655</v>
+      </c>
+      <c r="QE144">
+        <v>0.5276713</v>
+      </c>
+      <c r="QF144">
+        <v>0.4095563</v>
+      </c>
+      <c r="QK144">
+        <v>0.394961</v>
+      </c>
+      <c r="QN144">
+        <v>0.7345055</v>
+      </c>
+      <c r="QO144">
+        <v>0.8119113999999999</v>
+      </c>
+      <c r="QP144">
+        <v>0.6577117</v>
+      </c>
+      <c r="QS144">
+        <v>0.7665678</v>
+      </c>
+      <c r="QU144">
+        <v>1.4984709</v>
+      </c>
+      <c r="QV144">
+        <v>0.7686174</v>
+      </c>
+      <c r="QX144">
+        <v>0.3378828</v>
+      </c>
+      <c r="QY144">
+        <v>0.1216648</v>
+      </c>
+      <c r="RA144">
+        <v>1.9604631</v>
+      </c>
+      <c r="RB144">
+        <v>0.3038628</v>
+      </c>
+      <c r="RD144">
+        <v>0.7244223</v>
+      </c>
+      <c r="RI144">
+        <v>0.5647841</v>
+      </c>
+      <c r="RL144">
+        <v>0.2603037</v>
+      </c>
+      <c r="RQ144">
+        <v>0.3874539</v>
+      </c>
+      <c r="RT144">
+        <v>0.2027693</v>
+      </c>
+      <c r="RV144">
+        <v>0.2369668</v>
+      </c>
+      <c r="RX144">
+        <v>0.7582327</v>
+      </c>
+      <c r="RY144">
+        <v>0.2210073</v>
+      </c>
+      <c r="SA144">
+        <v>0.0821018</v>
+      </c>
+      <c r="SD144">
+        <v>0.4955031</v>
+      </c>
+      <c r="SG144">
+        <v>0.5758657</v>
+      </c>
+      <c r="SH144">
+        <v>0.5010282</v>
+      </c>
+      <c r="SI144">
+        <v>0.8008793</v>
+      </c>
+      <c r="SM144">
+        <v>0.3080082</v>
+      </c>
+      <c r="SO144">
+        <v>0.2552881</v>
+      </c>
+      <c r="SP144">
+        <v>0.3115265</v>
+      </c>
+      <c r="SR144">
+        <v>0.2621094</v>
+      </c>
+      <c r="SW144">
+        <v>0.095411</v>
+      </c>
+      <c r="SX144">
+        <v>0.0706714</v>
+      </c>
+      <c r="TS144">
+        <v>1.0072844</v>
+      </c>
+      <c r="TX144">
+        <v>0.2018221</v>
+      </c>
+      <c r="TY144">
+        <v>0.1804894</v>
+      </c>
+      <c r="UA144">
+        <v>0.6762295</v>
+      </c>
+      <c r="UE144">
+        <v>0.5010556</v>
+      </c>
+      <c r="UF144">
+        <v>0.627451</v>
+      </c>
+      <c r="UH144">
+        <v>0.4917062</v>
+      </c>
+      <c r="UI144">
+        <v>0.2969349</v>
+      </c>
+      <c r="UK144">
+        <v>0.3460764</v>
+      </c>
+      <c r="UN144">
+        <v>0.260674</v>
+      </c>
+      <c r="UP144">
+        <v>0.6076389</v>
+      </c>
+      <c r="US144">
+        <v>0.5278229</v>
+      </c>
+      <c r="UT144">
+        <v>0.3228583</v>
+      </c>
+      <c r="UU144">
+        <v>0.2923977</v>
+      </c>
+      <c r="UV144">
+        <v>0.0664011</v>
+      </c>
+      <c r="UW144">
+        <v>0.8604741</v>
+      </c>
+      <c r="VA144">
+        <v>0.3177966</v>
+      </c>
+      <c r="VB144">
+        <v>0.0949668</v>
+      </c>
+      <c r="VO144">
+        <v>0</v>
+      </c>
+      <c r="VP144">
+        <v>0.4478827</v>
+      </c>
+      <c r="VS144">
+        <v>0.2</v>
+      </c>
+      <c r="VU144">
+        <v>0.7196325</v>
+      </c>
+      <c r="VW144">
+        <v>0.8230453</v>
+      </c>
+      <c r="VX144">
+        <v>1.3272609</v>
+      </c>
+      <c r="VY144">
+        <v>0.4171203</v>
+      </c>
+      <c r="WB144">
+        <v>0.2707276</v>
+      </c>
+      <c r="WF144">
+        <v>0.0387877</v>
+      </c>
+      <c r="WG144">
+        <v>0.6895209</v>
+      </c>
+      <c r="WL144">
+        <v>0.4244646</v>
+      </c>
+      <c r="WM144">
+        <v>0.560472</v>
+      </c>
+      <c r="WQ144">
+        <v>0.6371627</v>
+      </c>
+      <c r="WU144">
+        <v>0.1335518</v>
+      </c>
+      <c r="WW144">
+        <v>0.3871579</v>
+      </c>
+      <c r="WY144">
+        <v>0.2333333</v>
+      </c>
+      <c r="WZ144">
+        <v>0.6103044</v>
+      </c>
+      <c r="XD144">
+        <v>0.6340924999999999</v>
+      </c>
+      <c r="XF144">
+        <v>0.1376758</v>
+      </c>
+      <c r="XG144">
+        <v>0.3176572</v>
+      </c>
+      <c r="XL144">
+        <v>0.4437049</v>
+      </c>
+      <c r="XM144">
+        <v>0.2509579</v>
+      </c>
+      <c r="XT144">
+        <v>0.3100775</v>
+      </c>
+      <c r="XV144">
+        <v>0.4039751</v>
+      </c>
+      <c r="YB144">
+        <v>0.3319465</v>
+      </c>
+      <c r="YD144">
+        <v>0.2298851</v>
+      </c>
+      <c r="YH144">
+        <v>0.2554278</v>
+      </c>
+      <c r="YN144">
+        <v>0.5460148</v>
+      </c>
+      <c r="YO144">
+        <v>0.5111256</v>
+      </c>
+      <c r="YQ144">
+        <v>0.2610461</v>
+      </c>
+      <c r="YR144">
+        <v>0.79567</v>
+      </c>
+      <c r="YX144">
+        <v>0.1834501</v>
+      </c>
+      <c r="YY144">
+        <v>0.4201681</v>
+      </c>
+      <c r="ZL144">
+        <v>0.2123308</v>
+      </c>
+      <c r="ZM144">
+        <v>0.3621169</v>
+      </c>
+      <c r="ZO144">
+        <v>0.122449</v>
+      </c>
+      <c r="ZR144">
+        <v>0.0430503</v>
+      </c>
+      <c r="ZS144">
+        <v>0.7326007</v>
+      </c>
+      <c r="ZV144">
+        <v>0.3087719</v>
+      </c>
+      <c r="ZW144">
+        <v>0.5669921</v>
+      </c>
+      <c r="ZX144">
+        <v>0.0547945</v>
+      </c>
+      <c r="ZZ144">
+        <v>0.487929</v>
+      </c>
+      <c r="AAB144">
+        <v>0.3012048</v>
+      </c>
+      <c r="AAC144">
+        <v>0.3455691</v>
+      </c>
+      <c r="AAD144">
+        <v>0.7478006</v>
+      </c>
+      <c r="AAF144">
+        <v>0.1042248</v>
+      </c>
+      <c r="AAH144">
+        <v>0.2131287</v>
+      </c>
+      <c r="AAJ144">
+        <v>0.2501074</v>
+      </c>
+      <c r="AAM144">
+        <v>0.1961127</v>
+      </c>
+      <c r="AAP144">
+        <v>0.5188088</v>
+      </c>
+      <c r="AAR144">
+        <v>0.5611226</v>
+      </c>
+      <c r="AAU144">
+        <v>0.3311258</v>
+      </c>
+      <c r="AAV144">
+        <v>0.2423682</v>
+      </c>
+      <c r="AAW144">
+        <v>0.1503962</v>
+      </c>
+      <c r="ABA144">
+        <v>0.2985075</v>
+      </c>
+      <c r="ABC144">
+        <v>0.7134703</v>
+      </c>
+      <c r="ABJ144">
+        <v>0.3194531</v>
+      </c>
+      <c r="ABL144">
+        <v>0.6256175</v>
+      </c>
+      <c r="ABM144">
+        <v>0.462963</v>
+      </c>
+      <c r="ABN144">
+        <v>0.9920635</v>
+      </c>
+      <c r="ABP144">
+        <v>0.2083163</v>
+      </c>
+      <c r="ABT144">
+        <v>0.3883093</v>
+      </c>
+      <c r="ABV144">
+        <v>0.1819366</v>
+      </c>
+      <c r="ABW144">
+        <v>0.237284</v>
+      </c>
+      <c r="ABX144">
+        <v>0.4945537</v>
+      </c>
+      <c r="ABY144">
+        <v>0.101626</v>
+      </c>
+      <c r="ABZ144">
+        <v>0.9023543000000001</v>
+      </c>
+      <c r="ACA144">
+        <v>0.2416571</v>
+      </c>
+      <c r="ACE144">
+        <v>0.1586437</v>
+      </c>
+      <c r="ACG144">
+        <v>0.1595019</v>
+      </c>
+      <c r="ACI144">
+        <v>0.1826308</v>
+      </c>
+      <c r="ACJ144">
+        <v>0</v>
+      </c>
+      <c r="ACK144">
+        <v>0</v>
+      </c>
+      <c r="ACM144">
+        <v>0.2644949</v>
+      </c>
+      <c r="ACN144">
+        <v>0.1788505</v>
+      </c>
+      <c r="ACP144">
+        <v>0.8580562</v>
+      </c>
+      <c r="ACU144">
+        <v>0.3577601</v>
+      </c>
+      <c r="ACW144">
+        <v>0.2606015</v>
+      </c>
+      <c r="ACX144">
+        <v>0.310559</v>
+      </c>
+      <c r="ADP144">
+        <v>0.1898909</v>
+      </c>
+      <c r="ADR144">
+        <v>2.0777876</v>
+      </c>
+      <c r="ADU144">
+        <v>1.028481</v>
+      </c>
+      <c r="ADV144">
+        <v>0.2446184</v>
+      </c>
+      <c r="AEA144">
+        <v>0.7631238</v>
+      </c>
+      <c r="AEB144">
+        <v>0.897907</v>
+      </c>
+      <c r="AEF144">
+        <v>0.339255</v>
+      </c>
+      <c r="AEG144">
+        <v>0.30837</v>
+      </c>
+      <c r="AEH144">
+        <v>0.3671454</v>
+      </c>
+      <c r="AEI144">
+        <v>0.3891668</v>
+      </c>
+      <c r="AEJ144">
+        <v>0.3891051</v>
+      </c>
+      <c r="AEL144">
+        <v>0.331675</v>
+      </c>
+      <c r="AEU144">
+        <v>0.2019188</v>
+      </c>
+      <c r="AEZ144">
+        <v>0.5458769</v>
+      </c>
+      <c r="AFD144">
+        <v>0.3424013</v>
+      </c>
+      <c r="AFG144">
+        <v>0.5258602</v>
+      </c>
+      <c r="AFH144">
+        <v>0.664264</v>
+      </c>
+      <c r="AFK144">
+        <v>0.7253463999999999</v>
+      </c>
+      <c r="AFL144">
+        <v>0.5532503</v>
+      </c>
+      <c r="AFN144">
+        <v>0</v>
+      </c>
+      <c r="AFT144">
+        <v>0.2752322</v>
+      </c>
+      <c r="AFU144">
+        <v>0.3931999</v>
+      </c>
+      <c r="AFX144">
+        <v>0.3348214</v>
+      </c>
+      <c r="AGA144">
+        <v>0.7506129</v>
+      </c>
+      <c r="AGC144">
+        <v>0.5583037</v>
+      </c>
+      <c r="AGE144">
+        <v>0.3739892</v>
+      </c>
+      <c r="AGF144">
+        <v>1.0327635</v>
+      </c>
+      <c r="AGG144">
+        <v>0.2197802</v>
+      </c>
+      <c r="AGL144">
+        <v>0.3191489</v>
+      </c>
+      <c r="AGM144">
+        <v>0.0826672</v>
+      </c>
+      <c r="AGO144">
+        <v>0.2913753</v>
+      </c>
+      <c r="AGP144">
+        <v>0.2091938</v>
+      </c>
+      <c r="AGV144">
+        <v>1.2345679</v>
+      </c>
+      <c r="AHA144">
+        <v>0.453601</v>
+      </c>
+      <c r="AHB144">
+        <v>0.6804369</v>
+      </c>
+      <c r="AHD144">
+        <v>0.3585434</v>
+      </c>
+      <c r="AHH144">
+        <v>0.2124646</v>
+      </c>
+      <c r="AHN144">
+        <v>0.338227</v>
+      </c>
+      <c r="AHP144">
+        <v>0.467706</v>
+      </c>
+      <c r="AHS144">
+        <v>0.8365508</v>
+      </c>
+      <c r="AHU144">
+        <v>0.6396588</v>
+      </c>
+      <c r="AHX144">
+        <v>0</v>
+      </c>
+      <c r="AIB144">
+        <v>0.7425743</v>
+      </c>
+      <c r="AID144">
+        <v>0.626679</v>
+      </c>
+      <c r="AIE144">
+        <v>0.6191950000000001</v>
+      </c>
+      <c r="AIF144">
+        <v>0.2280349</v>
+      </c>
+      <c r="AII144">
+        <v>0.4257354</v>
+      </c>
+      <c r="AIP144">
+        <v>0.3627167</v>
+      </c>
+      <c r="AIT144">
+        <v>0.2850159</v>
+      </c>
+      <c r="AIV144">
+        <v>0.616964</v>
+      </c>
+      <c r="AIY144">
+        <v>0.3174043</v>
+      </c>
+      <c r="AIZ144">
+        <v>0.478681</v>
+      </c>
+      <c r="AJA144">
+        <v>0.1658375</v>
+      </c>
+    </row>
+    <row r="145" spans="1:936">
+      <c r="A145" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D145">
+        <v>0.982801</v>
+      </c>
+      <c r="H145">
+        <v>0.099618</v>
+      </c>
+      <c r="J145">
+        <v>0.06435009999999999</v>
+      </c>
+      <c r="K145">
+        <v>0.1259446</v>
+      </c>
+      <c r="L145">
+        <v>0.2766572</v>
+      </c>
+      <c r="P145">
+        <v>0.1503256</v>
+      </c>
+      <c r="R145">
+        <v>0.4918033</v>
+      </c>
+      <c r="U145">
+        <v>0.4040598</v>
+      </c>
+      <c r="X145">
+        <v>0.3908795</v>
+      </c>
+      <c r="Z145">
+        <v>1.5438165</v>
+      </c>
+      <c r="AB145">
+        <v>0.5664488</v>
+      </c>
+      <c r="AD145">
+        <v>0.3850445</v>
+      </c>
+      <c r="AG145">
+        <v>0.1438506</v>
+      </c>
+      <c r="AI145">
+        <v>0.1246302</v>
+      </c>
+      <c r="AN145">
+        <v>0.3326499</v>
+      </c>
+      <c r="AV145">
+        <v>0.4811715</v>
+      </c>
+      <c r="AW145">
+        <v>0.5321115</v>
+      </c>
+      <c r="AX145">
+        <v>0.2938034</v>
+      </c>
+      <c r="BB145">
+        <v>0.2978723</v>
+      </c>
+      <c r="BC145">
+        <v>0.6037903</v>
+      </c>
+      <c r="BF145">
+        <v>0.6571576</v>
+      </c>
+      <c r="BH145">
+        <v>0.3167945</v>
+      </c>
+      <c r="BI145">
+        <v>0.278543</v>
+      </c>
+      <c r="BJ145">
+        <v>0.1295337</v>
+      </c>
+      <c r="BM145">
+        <v>0.1153403</v>
+      </c>
+      <c r="BR145">
+        <v>0.6064342</v>
+      </c>
+      <c r="BS145">
+        <v>0.4021448</v>
+      </c>
+      <c r="BT145">
+        <v>0.4166667</v>
+      </c>
+      <c r="BW145">
+        <v>0.4615365</v>
+      </c>
+      <c r="BY145">
+        <v>0.6097561</v>
+      </c>
+      <c r="CC145">
+        <v>0</v>
+      </c>
+      <c r="CE145">
+        <v>0.1351351</v>
+      </c>
+      <c r="CL145">
+        <v>0.4050926</v>
+      </c>
+      <c r="CM145">
+        <v>0.0496032</v>
+      </c>
+      <c r="CN145">
+        <v>0.8135868000000001</v>
+      </c>
+      <c r="CO145">
+        <v>0.6377551</v>
+      </c>
+      <c r="CR145">
+        <v>0</v>
+      </c>
+      <c r="CS145">
+        <v>0.4826255</v>
+      </c>
+      <c r="CT145">
+        <v>0.8573141</v>
+      </c>
+      <c r="CY145">
+        <v>0.6110397</v>
+      </c>
+      <c r="DC145">
+        <v>0.3159236</v>
+      </c>
+      <c r="DD145">
+        <v>0.3608361</v>
+      </c>
+      <c r="DK145">
+        <v>0.3558052</v>
+      </c>
+      <c r="DN145">
+        <v>0.1255155</v>
+      </c>
+      <c r="DS145">
+        <v>2.3692874</v>
+      </c>
+      <c r="DW145">
+        <v>0.2128322</v>
+      </c>
+      <c r="DZ145">
+        <v>0.3072197</v>
+      </c>
+      <c r="EA145">
+        <v>0.5747126</v>
+      </c>
+      <c r="EK145">
+        <v>0.0614538</v>
+      </c>
+      <c r="EL145">
+        <v>0.7030444</v>
+      </c>
+      <c r="EM145">
+        <v>1.3333333</v>
+      </c>
+      <c r="EN145">
+        <v>0.3205128</v>
+      </c>
+      <c r="ER145">
+        <v>0.125</v>
+      </c>
+      <c r="ET145">
+        <v>0.6113627</v>
+      </c>
+      <c r="EZ145">
+        <v>0.660066</v>
+      </c>
+      <c r="FA145">
+        <v>0.5248592</v>
+      </c>
+      <c r="FB145">
+        <v>0.3529104</v>
+      </c>
+      <c r="FD145">
+        <v>1.0090322</v>
+      </c>
+      <c r="FE145">
+        <v>0.4694665</v>
+      </c>
+      <c r="FG145">
+        <v>0.7722271000000001</v>
+      </c>
+      <c r="FH145">
+        <v>0.7407407</v>
+      </c>
+      <c r="FI145">
+        <v>0.3115051</v>
+      </c>
+      <c r="FJ145">
+        <v>0.3521127</v>
+      </c>
+      <c r="FL145">
+        <v>0.4311972</v>
+      </c>
+      <c r="FO145">
+        <v>0.5980392</v>
+      </c>
+      <c r="FR145">
+        <v>1.1078431</v>
+      </c>
+      <c r="FS145">
+        <v>0.3877465</v>
+      </c>
+      <c r="FY145">
+        <v>1.0693887</v>
+      </c>
+      <c r="GB145">
+        <v>1.3383747</v>
+      </c>
+      <c r="GC145">
+        <v>0.3702399</v>
+      </c>
+      <c r="GD145">
+        <v>0</v>
+      </c>
+      <c r="GE145">
+        <v>0.5517491</v>
+      </c>
+      <c r="GF145">
+        <v>0.8771741</v>
+      </c>
+      <c r="GJ145">
+        <v>0.3062154</v>
+      </c>
+      <c r="GS145">
+        <v>1.2821965</v>
+      </c>
+      <c r="GV145">
+        <v>0.4956268</v>
+      </c>
+      <c r="HA145">
+        <v>0.4412282</v>
+      </c>
+      <c r="HF145">
+        <v>0.6107576</v>
+      </c>
+      <c r="HH145">
+        <v>2.3076923</v>
+      </c>
+      <c r="HK145">
+        <v>0.8101822</v>
+      </c>
+      <c r="HL145">
+        <v>0.1235959</v>
+      </c>
+      <c r="HN145">
+        <v>0.3834168</v>
+      </c>
+      <c r="HO145">
+        <v>1.0814249</v>
+      </c>
+      <c r="HP145">
+        <v>0.0886525</v>
+      </c>
+      <c r="HT145">
+        <v>0.3902116</v>
+      </c>
+      <c r="HV145">
+        <v>0.4119707</v>
+      </c>
+      <c r="HX145">
+        <v>0.7809005999999999</v>
+      </c>
+      <c r="HY145">
+        <v>0.1851731</v>
+      </c>
+      <c r="IC145">
+        <v>1.2033694</v>
+      </c>
+      <c r="IE145">
+        <v>1.0252366</v>
+      </c>
+      <c r="IH145">
+        <v>0.6726457</v>
+      </c>
+      <c r="II145">
+        <v>0.2000166</v>
+      </c>
+      <c r="IN145">
+        <v>0.260178</v>
+      </c>
+      <c r="IR145">
+        <v>0.7137457</v>
+      </c>
+      <c r="IS145">
+        <v>0.1230719</v>
+      </c>
+      <c r="IZ145">
+        <v>0.3504673</v>
+      </c>
+      <c r="JB145">
+        <v>0.8638211</v>
+      </c>
+      <c r="JF145">
+        <v>0.5398111</v>
+      </c>
+      <c r="JG145">
+        <v>0.5701441</v>
+      </c>
+      <c r="JK145">
+        <v>0.24699</v>
+      </c>
+      <c r="JO145">
+        <v>0.1522798</v>
+      </c>
+      <c r="JR145">
+        <v>0.2754975</v>
+      </c>
+      <c r="JS145">
+        <v>0.3367003</v>
+      </c>
+      <c r="JX145">
+        <v>0.8779762</v>
+      </c>
+      <c r="KB145">
+        <v>0.4595595</v>
+      </c>
+      <c r="KC145">
+        <v>1.000689</v>
+      </c>
+      <c r="KI145">
+        <v>0.2188137</v>
+      </c>
+      <c r="KJ145">
+        <v>0.5157715</v>
+      </c>
+      <c r="KO145">
+        <v>0.1445869</v>
+      </c>
+      <c r="KV145">
+        <v>0.6600654</v>
+      </c>
+      <c r="KW145">
+        <v>0.5559263</v>
+      </c>
+      <c r="LD145">
+        <v>0.6337173</v>
+      </c>
+      <c r="LG145">
+        <v>0.2817002</v>
+      </c>
+      <c r="LH145">
+        <v>0.4</v>
+      </c>
+      <c r="LO145">
+        <v>0.1388889</v>
+      </c>
+      <c r="LR145">
+        <v>0.4926108</v>
+      </c>
+      <c r="LW145">
+        <v>1.076555</v>
+      </c>
+      <c r="LX145">
+        <v>0</v>
+      </c>
+      <c r="LY145">
+        <v>0.1085776</v>
+      </c>
+      <c r="MA145">
+        <v>0.2084858</v>
+      </c>
+      <c r="MC145">
+        <v>0</v>
+      </c>
+      <c r="ME145">
+        <v>0.6097561</v>
+      </c>
+      <c r="MF145">
+        <v>0.2826144</v>
+      </c>
+      <c r="MG145">
+        <v>0.363217</v>
+      </c>
+      <c r="MI145">
+        <v>0.545753</v>
+      </c>
+      <c r="ML145">
+        <v>0</v>
+      </c>
+      <c r="MN145">
+        <v>0.574009</v>
+      </c>
+      <c r="MS145">
+        <v>0.4709876</v>
+      </c>
+      <c r="MU145">
+        <v>0.2982107</v>
+      </c>
+      <c r="MW145">
+        <v>0.3215434</v>
+      </c>
+      <c r="MX145">
+        <v>0.2419355</v>
+      </c>
+      <c r="MZ145">
+        <v>0.1336856</v>
+      </c>
+      <c r="NC145">
+        <v>0.2233411</v>
+      </c>
+      <c r="NE145">
+        <v>0.4708098</v>
+      </c>
+      <c r="NM145">
+        <v>0.6446051</v>
+      </c>
+      <c r="NP145">
+        <v>0.7019171</v>
+      </c>
+      <c r="NQ145">
+        <v>0</v>
+      </c>
+      <c r="NT145">
+        <v>0.1939058</v>
+      </c>
+      <c r="NW145">
+        <v>0.7241379</v>
+      </c>
+      <c r="NY145">
+        <v>1.1918605</v>
+      </c>
+      <c r="NZ145">
+        <v>1.0845294</v>
+      </c>
+      <c r="OD145">
+        <v>0.3324663</v>
+      </c>
+      <c r="OE145">
+        <v>0.3253167</v>
+      </c>
+      <c r="OJ145">
+        <v>0.4127967</v>
+      </c>
+      <c r="OL145">
+        <v>0.2646338</v>
+      </c>
+      <c r="ON145">
+        <v>0.6736243</v>
+      </c>
+      <c r="OP145">
+        <v>0.1592357</v>
+      </c>
+      <c r="OQ145">
+        <v>0.5286343999999999</v>
+      </c>
+      <c r="OR145">
+        <v>0.9425705</v>
+      </c>
+      <c r="OT145">
+        <v>0.4792332</v>
+      </c>
+      <c r="OV145">
+        <v>0.5730118</v>
+      </c>
+      <c r="OX145">
+        <v>0.4581359</v>
+      </c>
+      <c r="PB145">
+        <v>0.4231771</v>
+      </c>
+      <c r="PG145">
+        <v>0.4264392</v>
+      </c>
+      <c r="PJ145">
+        <v>0</v>
+      </c>
+      <c r="PK145">
+        <v>0.07739939999999999</v>
+      </c>
+      <c r="PL145">
+        <v>0.9716659</v>
+      </c>
+      <c r="PM145">
+        <v>0.7043189</v>
+      </c>
+      <c r="PP145">
+        <v>0.3549256</v>
+      </c>
+      <c r="PR145">
+        <v>0.5518087</v>
+      </c>
+      <c r="PS145">
+        <v>0.243745</v>
+      </c>
+      <c r="PY145">
+        <v>0.7322155</v>
+      </c>
+      <c r="QD145">
+        <v>0.4519178</v>
+      </c>
+      <c r="QE145">
+        <v>0.4628898</v>
+      </c>
+      <c r="QF145">
+        <v>0.3424658</v>
+      </c>
+      <c r="QK145">
+        <v>0.35337</v>
+      </c>
+      <c r="QN145">
+        <v>0.7915377</v>
+      </c>
+      <c r="QO145">
+        <v>0.6401933</v>
+      </c>
+      <c r="QP145">
+        <v>0.4483737</v>
+      </c>
+      <c r="QS145">
+        <v>1.2346381</v>
+      </c>
+      <c r="QU145">
+        <v>1.4027149</v>
+      </c>
+      <c r="QV145">
+        <v>0.8073917</v>
+      </c>
+      <c r="QX145">
+        <v>0.3870903</v>
+      </c>
+      <c r="QY145">
+        <v>0.1648006</v>
+      </c>
+      <c r="RA145">
+        <v>1.9251394</v>
+      </c>
+      <c r="RB145">
+        <v>0.5418519000000001</v>
+      </c>
+      <c r="RD145">
+        <v>0.6380316</v>
+      </c>
+      <c r="RI145">
+        <v>0.619213</v>
+      </c>
+      <c r="RL145">
+        <v>0.3636364</v>
+      </c>
+      <c r="RQ145">
+        <v>0.0886525</v>
+      </c>
+      <c r="RT145">
+        <v>0.470418</v>
+      </c>
+      <c r="RV145">
+        <v>0.2427184</v>
+      </c>
+      <c r="RX145">
+        <v>0.7483198</v>
+      </c>
+      <c r="RY145">
+        <v>0.1473001</v>
+      </c>
+      <c r="SA145">
+        <v>0.07806399999999999</v>
+      </c>
+      <c r="SD145">
+        <v>0.6344307</v>
+      </c>
+      <c r="SG145">
+        <v>0.6131765</v>
+      </c>
+      <c r="SH145">
+        <v>0.5102565</v>
+      </c>
+      <c r="SI145">
+        <v>0.7722258</v>
+      </c>
+      <c r="SM145">
+        <v>0.3198294</v>
+      </c>
+      <c r="SO145">
+        <v>0.2604167</v>
+      </c>
+      <c r="SP145">
+        <v>0.4125413</v>
+      </c>
+      <c r="SR145">
+        <v>0.2684242</v>
+      </c>
+      <c r="SW145">
+        <v>0.2481221</v>
+      </c>
+      <c r="SX145">
+        <v>0.07352939999999999</v>
+      </c>
+      <c r="TS145">
+        <v>1.2527549</v>
+      </c>
+      <c r="TX145">
+        <v>0.2138805</v>
+      </c>
+      <c r="TY145">
+        <v>0.0857131</v>
+      </c>
+      <c r="UA145">
+        <v>0.6875</v>
+      </c>
+      <c r="UE145">
+        <v>0.5092302</v>
+      </c>
+      <c r="UF145">
+        <v>0.5087015</v>
+      </c>
+      <c r="UH145">
+        <v>0.5390995</v>
+      </c>
+      <c r="UI145">
+        <v>0.6492248</v>
+      </c>
+      <c r="UK145">
+        <v>0.3129272</v>
+      </c>
+      <c r="UN145">
+        <v>0.258445</v>
+      </c>
+      <c r="UP145">
+        <v>0.4370629</v>
+      </c>
+      <c r="US145">
+        <v>0.6116943</v>
+      </c>
+      <c r="UT145">
+        <v>0.3257418</v>
+      </c>
+      <c r="UU145">
+        <v>0.4246285</v>
+      </c>
+      <c r="UV145">
+        <v>0.06901309999999999</v>
+      </c>
+      <c r="UW145">
+        <v>0.8875267</v>
+      </c>
+      <c r="VA145">
+        <v>0.2796421</v>
+      </c>
+      <c r="VB145">
+        <v>0.09803920000000001</v>
+      </c>
+      <c r="VO145">
+        <v>0</v>
+      </c>
+      <c r="VP145">
+        <v>0.1168224</v>
+      </c>
+      <c r="VS145">
+        <v>0.203252</v>
+      </c>
+      <c r="VU145">
+        <v>0.709418</v>
+      </c>
+      <c r="VW145">
+        <v>0.862069</v>
+      </c>
+      <c r="VX145">
+        <v>1.6078103</v>
+      </c>
+      <c r="VY145">
+        <v>0.5053877</v>
+      </c>
+      <c r="WB145">
+        <v>0.3455818</v>
+      </c>
+      <c r="WF145">
+        <v>0.0577308</v>
+      </c>
+      <c r="WG145">
+        <v>0.787798</v>
+      </c>
+      <c r="WL145">
+        <v>0.4367356</v>
+      </c>
+      <c r="WM145">
+        <v>0.5688623</v>
+      </c>
+      <c r="WQ145">
+        <v>0.5033879</v>
+      </c>
+      <c r="WU145">
+        <v>0.1370664</v>
+      </c>
+      <c r="WW145">
+        <v>0.4327249</v>
+      </c>
+      <c r="WY145">
+        <v>0.3202847</v>
+      </c>
+      <c r="WZ145">
+        <v>0.455806</v>
+      </c>
+      <c r="XD145">
+        <v>0.485003</v>
+      </c>
+      <c r="XF145">
+        <v>0.21092</v>
+      </c>
+      <c r="XG145">
+        <v>0.3518263</v>
+      </c>
+      <c r="XL145">
+        <v>0.4662167</v>
+      </c>
+      <c r="XM145">
+        <v>0.3441734</v>
+      </c>
+      <c r="XT145">
+        <v>0.1587302</v>
+      </c>
+      <c r="XV145">
+        <v>0.4714042</v>
+      </c>
+      <c r="YB145">
+        <v>0.2905</v>
+      </c>
+      <c r="YD145">
+        <v>0.2439024</v>
+      </c>
+      <c r="YH145">
+        <v>0.2710027</v>
+      </c>
+      <c r="YN145">
+        <v>0.5503147</v>
+      </c>
+      <c r="YO145">
+        <v>0.5591791</v>
+      </c>
+      <c r="YQ145">
+        <v>0.2769204</v>
+      </c>
+      <c r="YR145">
+        <v>0.7733999</v>
+      </c>
+      <c r="YX145">
+        <v>0.1699703</v>
+      </c>
+      <c r="YY145">
+        <v>0.8403361</v>
+      </c>
+      <c r="ZL145">
+        <v>0.2438176</v>
+      </c>
+      <c r="ZM145">
+        <v>0.3049388</v>
+      </c>
+      <c r="ZO145">
+        <v>0.297275</v>
+      </c>
+      <c r="ZR145">
+        <v>0.1077818</v>
+      </c>
+      <c r="ZS145">
+        <v>0.7246377000000001</v>
+      </c>
+      <c r="ZV145">
+        <v>0.2980084</v>
+      </c>
+      <c r="ZW145">
+        <v>0.525114</v>
+      </c>
+      <c r="ZX145">
+        <v>0.3399433</v>
+      </c>
+      <c r="ZZ145">
+        <v>0.5942411</v>
+      </c>
+      <c r="AAB145">
+        <v>0.2884615</v>
+      </c>
+      <c r="AAC145">
+        <v>0.3644728</v>
+      </c>
+      <c r="AAD145">
+        <v>0.4740061</v>
+      </c>
+      <c r="AAF145">
+        <v>0.2848623</v>
+      </c>
+      <c r="AAH145">
+        <v>0.2153316</v>
+      </c>
+      <c r="AAJ145">
+        <v>0.2848689</v>
+      </c>
+      <c r="AAM145">
+        <v>0.1856521</v>
+      </c>
+      <c r="AAP145">
+        <v>0.5475486000000001</v>
+      </c>
+      <c r="AAR145">
+        <v>0.5953744</v>
+      </c>
+      <c r="AAU145">
+        <v>0.3348214</v>
+      </c>
+      <c r="AAV145">
+        <v>0.1785352</v>
+      </c>
+      <c r="AAW145">
+        <v>0.1563298</v>
+      </c>
+      <c r="ABA145">
+        <v>0.310559</v>
+      </c>
+      <c r="ABC145">
+        <v>0.5993151</v>
+      </c>
+      <c r="ABJ145">
+        <v>0.2195332</v>
+      </c>
+      <c r="ABL145">
+        <v>0.4674145</v>
+      </c>
+      <c r="ABM145">
+        <v>0.4748338</v>
+      </c>
+      <c r="ABN145">
+        <v>1.0288066</v>
+      </c>
+      <c r="ABP145">
+        <v>0.2103009</v>
+      </c>
+      <c r="ABT145">
+        <v>0.3732382</v>
+      </c>
+      <c r="ABV145">
+        <v>0.1836194</v>
+      </c>
+      <c r="ABW145">
+        <v>0.4539111</v>
+      </c>
+      <c r="ABX145">
+        <v>0.5227613</v>
+      </c>
+      <c r="ABY145">
+        <v>0.2653061</v>
+      </c>
+      <c r="ABZ145">
+        <v>0.9856596</v>
+      </c>
+      <c r="ACA145">
+        <v>0.2836874</v>
+      </c>
+      <c r="ACE145">
+        <v>0.1423388</v>
+      </c>
+      <c r="ACG145">
+        <v>0.1621054</v>
+      </c>
+      <c r="ACI145">
+        <v>0.1701504</v>
+      </c>
+      <c r="ACJ145">
+        <v>0.0434783</v>
+      </c>
+      <c r="ACK145">
+        <v>0</v>
+      </c>
+      <c r="ACM145">
+        <v>0.1718965</v>
+      </c>
+      <c r="ACN145">
+        <v>0.1862246</v>
+      </c>
+      <c r="ACP145">
+        <v>0.7555164</v>
+      </c>
+      <c r="ACU145">
+        <v>0.2820986</v>
+      </c>
+      <c r="ACW145">
+        <v>0.2246358</v>
+      </c>
+      <c r="ACX145">
+        <v>0.310559</v>
+      </c>
+      <c r="ADP145">
+        <v>0.1764741</v>
+      </c>
+      <c r="ADR145">
+        <v>2.1105603</v>
+      </c>
+      <c r="ADU145">
+        <v>0.7954545</v>
+      </c>
+      <c r="ADV145">
+        <v>0.4545455</v>
+      </c>
+      <c r="AEA145">
+        <v>1.0370588</v>
+      </c>
+      <c r="AEB145">
+        <v>0.9095261</v>
+      </c>
+      <c r="AEF145">
+        <v>0.4486412</v>
+      </c>
+      <c r="AEG145">
+        <v>0.4484305</v>
+      </c>
+      <c r="AEH145">
+        <v>0.2318388</v>
+      </c>
+      <c r="AEI145">
+        <v>0.3187047</v>
+      </c>
+      <c r="AEJ145">
+        <v>0.3984064</v>
+      </c>
+      <c r="AEL145">
+        <v>0.2072968</v>
+      </c>
+      <c r="AEU145">
+        <v>0.2675244</v>
+      </c>
+      <c r="AEZ145">
+        <v>0.5655836</v>
+      </c>
+      <c r="AFD145">
+        <v>0.3309619</v>
+      </c>
+      <c r="AFG145">
+        <v>0.6116635</v>
+      </c>
+      <c r="AFH145">
+        <v>0.7552044999999999</v>
+      </c>
+      <c r="AFK145">
+        <v>0.6633081</v>
+      </c>
+      <c r="AFL145">
+        <v>0.7638889</v>
+      </c>
+      <c r="AFN145">
+        <v>0</v>
+      </c>
+      <c r="AFT145">
+        <v>0.2628798</v>
+      </c>
+      <c r="AFU145">
+        <v>0.4044235</v>
+      </c>
+      <c r="AFX145">
+        <v>0.4129129</v>
+      </c>
+      <c r="AGA145">
+        <v>0.8203818</v>
+      </c>
+      <c r="AGC145">
+        <v>0.7221217</v>
+      </c>
+      <c r="AGE145">
+        <v>0.201005</v>
+      </c>
+      <c r="AGF145">
+        <v>0.7607192</v>
+      </c>
+      <c r="AGG145">
+        <v>0.3923767</v>
+      </c>
+      <c r="AGL145">
+        <v>0.2146581</v>
+      </c>
+      <c r="AGM145">
+        <v>0.0835588</v>
+      </c>
+      <c r="AGO145">
+        <v>0.308642</v>
+      </c>
+      <c r="AGP145">
+        <v>0.2171094</v>
+      </c>
+      <c r="AGV145">
+        <v>1.4937107</v>
+      </c>
+      <c r="AHA145">
+        <v>0.4176898</v>
+      </c>
+      <c r="AHB145">
+        <v>0.6801245</v>
+      </c>
+      <c r="AHD145">
+        <v>0.3865546</v>
+      </c>
+      <c r="AHH145">
+        <v>0.1501502</v>
+      </c>
+      <c r="AHN145">
+        <v>0.3913869</v>
+      </c>
+      <c r="AHP145">
+        <v>0.3529412</v>
+      </c>
+      <c r="AHS145">
+        <v>0.877193</v>
+      </c>
+      <c r="AHU145">
+        <v>0.6912442</v>
+      </c>
+      <c r="AHX145">
+        <v>0</v>
+      </c>
+      <c r="AIB145">
+        <v>0.7575758</v>
+      </c>
+      <c r="AID145">
+        <v>0.7339383</v>
+      </c>
+      <c r="AIE145">
+        <v>0</v>
+      </c>
+      <c r="AIF145">
+        <v>0.1949318</v>
+      </c>
+      <c r="AII145">
+        <v>0.5782429</v>
+      </c>
+      <c r="AIP145">
+        <v>0.3087631</v>
+      </c>
+      <c r="AIT145">
+        <v>0.30962</v>
+      </c>
+      <c r="AIV145">
+        <v>0.5154777</v>
+      </c>
+      <c r="AIY145">
+        <v>0.330826</v>
+      </c>
+      <c r="AIZ145">
+        <v>0.3262995</v>
+      </c>
+    </row>
+    <row r="146" spans="1:936">
+      <c r="A146" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D146">
+        <v>1.2080262</v>
+      </c>
+      <c r="H146">
+        <v>0.1659371</v>
+      </c>
+      <c r="J146">
+        <v>0.0649351</v>
+      </c>
+      <c r="K146">
+        <v>0.1333333</v>
+      </c>
+      <c r="L146">
+        <v>0.159459</v>
+      </c>
+      <c r="P146">
+        <v>0.1529364</v>
+      </c>
+      <c r="R146">
+        <v>0.0775194</v>
+      </c>
+      <c r="U146">
+        <v>0.1879668</v>
+      </c>
+      <c r="X146">
+        <v>0.3846154</v>
+      </c>
+      <c r="Z146">
+        <v>1.2252475</v>
+      </c>
+      <c r="AB146">
+        <v>0.5816555</v>
+      </c>
+      <c r="AD146">
+        <v>0.4007493</v>
+      </c>
+      <c r="AG146">
+        <v>0.1504269</v>
+      </c>
+      <c r="AI146">
+        <v>0.1245508</v>
+      </c>
+      <c r="AN146">
+        <v>0.2628669</v>
+      </c>
+      <c r="AV146">
+        <v>0.6875</v>
+      </c>
+      <c r="AW146">
+        <v>0.4911342</v>
+      </c>
+      <c r="AX146">
+        <v>0.3150057</v>
+      </c>
+      <c r="BB146">
+        <v>0.0892857</v>
+      </c>
+      <c r="BC146">
+        <v>0.4955906</v>
+      </c>
+      <c r="BF146">
+        <v>0.6962765</v>
+      </c>
+      <c r="BH146">
+        <v>0.5131472</v>
+      </c>
+      <c r="BI146">
+        <v>0.2875321</v>
+      </c>
+      <c r="BJ146">
+        <v>0.1347709</v>
+      </c>
+      <c r="BM146">
+        <v>0.1126126</v>
+      </c>
+      <c r="BR146">
+        <v>0.5699243000000001</v>
+      </c>
+      <c r="BS146">
+        <v>0.4360465</v>
+      </c>
+      <c r="BT146">
+        <v>0.433513</v>
+      </c>
+      <c r="BW146">
+        <v>0.8374387</v>
+      </c>
+      <c r="BY146">
+        <v>0.6493506</v>
+      </c>
+      <c r="CC146">
+        <v>0</v>
+      </c>
+      <c r="CE146">
+        <v>0.4120879</v>
+      </c>
+      <c r="CL146">
+        <v>0.5952381</v>
+      </c>
+      <c r="CM146">
+        <v>0</v>
+      </c>
+      <c r="CN146">
+        <v>0.6573901</v>
+      </c>
+      <c r="CO146">
+        <v>0.6377551</v>
+      </c>
+      <c r="CR146">
+        <v>0</v>
+      </c>
+      <c r="CT146">
+        <v>0.8926342</v>
+      </c>
+      <c r="CY146">
+        <v>0.7111618</v>
+      </c>
+      <c r="DC146">
+        <v>0.3095763</v>
+      </c>
+      <c r="DD146">
+        <v>0.3632752</v>
+      </c>
+      <c r="DK146">
+        <v>0.2739726</v>
+      </c>
+      <c r="DN146">
+        <v>0.2627414</v>
+      </c>
+      <c r="DS146">
+        <v>2.8017305</v>
+      </c>
+      <c r="DW146">
+        <v>0.1997902</v>
+      </c>
+      <c r="DZ146">
+        <v>0.3108003</v>
+      </c>
+      <c r="EA146">
+        <v>0.4115226</v>
+      </c>
+      <c r="EK146">
+        <v>0.0642075</v>
+      </c>
+      <c r="EL146">
+        <v>0.8592154</v>
+      </c>
+      <c r="EM146">
+        <v>1.3513514</v>
+      </c>
+      <c r="EN146">
+        <v>0.1308901</v>
+      </c>
+      <c r="ER146">
+        <v>0.1282051</v>
+      </c>
+      <c r="ET146">
+        <v>0.3151059</v>
+      </c>
+      <c r="EZ146">
+        <v>0.7042254</v>
+      </c>
+      <c r="FA146">
+        <v>0.5445005000000001</v>
+      </c>
+      <c r="FB146">
+        <v>0.5238639</v>
+      </c>
+      <c r="FD146">
+        <v>0.8845461999999999</v>
+      </c>
+      <c r="FE146">
+        <v>0.5247996</v>
+      </c>
+      <c r="FG146">
+        <v>0.4410154</v>
+      </c>
+      <c r="FH146">
+        <v>0.7287449</v>
+      </c>
+      <c r="FI146">
+        <v>0.3188947</v>
+      </c>
+      <c r="FJ146">
+        <v>0.4428341</v>
+      </c>
+      <c r="FL146">
+        <v>0.4754727</v>
+      </c>
+      <c r="FO146">
+        <v>0.5910853</v>
+      </c>
+      <c r="FR146">
+        <v>0.8403657</v>
+      </c>
+      <c r="FS146">
+        <v>0.3376745</v>
+      </c>
+      <c r="FY146">
+        <v>1.1170348</v>
+      </c>
+      <c r="GB146">
+        <v>1.2807445</v>
+      </c>
+      <c r="GC146">
+        <v>0.3972506</v>
+      </c>
+      <c r="GD146">
+        <v>0</v>
+      </c>
+      <c r="GE146">
+        <v>0.5931474</v>
+      </c>
+      <c r="GF146">
+        <v>0.970393</v>
+      </c>
+      <c r="GJ146">
+        <v>0.1971412</v>
+      </c>
+      <c r="GS146">
+        <v>1.5452818</v>
+      </c>
+      <c r="GV146">
+        <v>0.5198777</v>
+      </c>
+      <c r="HA146">
+        <v>0.5692088</v>
+      </c>
+      <c r="HF146">
+        <v>0.6304028</v>
+      </c>
+      <c r="HH146">
+        <v>1.9685039</v>
+      </c>
+      <c r="HK146">
+        <v>0.988456</v>
+      </c>
+      <c r="HL146">
+        <v>0.1311294</v>
+      </c>
+      <c r="HN146">
+        <v>0.3779284</v>
+      </c>
+      <c r="HO146">
+        <v>0.8496732</v>
+      </c>
+      <c r="HP146">
+        <v>0.5076142</v>
+      </c>
+      <c r="HT146">
+        <v>0.5648166999999999</v>
+      </c>
+      <c r="HV146">
+        <v>0.4405505</v>
+      </c>
+      <c r="HX146">
+        <v>0.4967829</v>
+      </c>
+      <c r="HY146">
+        <v>0.1433745</v>
+      </c>
+      <c r="IC146">
+        <v>1.1454754</v>
+      </c>
+      <c r="IE146">
+        <v>1.0761589</v>
+      </c>
+      <c r="IH146">
+        <v>0.8530806</v>
+      </c>
+      <c r="II146">
+        <v>0.2076125</v>
+      </c>
+      <c r="IN146">
+        <v>0.2649596</v>
+      </c>
+      <c r="IR146">
+        <v>0.7606769</v>
+      </c>
+      <c r="IS146">
+        <v>0.1316251</v>
+      </c>
+      <c r="IZ146">
+        <v>0.3456221</v>
+      </c>
+      <c r="JB146">
+        <v>0.8551308</v>
+      </c>
+      <c r="JF146">
+        <v>0.5509642</v>
+      </c>
+      <c r="JG146">
+        <v>0.7031129</v>
+      </c>
+      <c r="JK146">
+        <v>0.2520449</v>
+      </c>
+      <c r="JO146">
+        <v>0.1838197</v>
+      </c>
+      <c r="JR146">
+        <v>0.281363</v>
+      </c>
+      <c r="JS146">
+        <v>0.3565062</v>
+      </c>
+      <c r="JX146">
+        <v>1.0682731</v>
+      </c>
+      <c r="KB146">
+        <v>0.4865433</v>
+      </c>
+      <c r="KC146">
+        <v>1.0366102</v>
+      </c>
+      <c r="KI146">
+        <v>0.1647037</v>
+      </c>
+      <c r="KJ146">
+        <v>0.4500891</v>
+      </c>
+      <c r="KO146">
+        <v>0.0322433</v>
+      </c>
+      <c r="KV146">
+        <v>0.8462532</v>
+      </c>
+      <c r="KW146">
+        <v>0.4746285</v>
+      </c>
+      <c r="LD146">
+        <v>0.7999849999999999</v>
+      </c>
+      <c r="LG146">
+        <v>0.3837591</v>
+      </c>
+      <c r="LH146">
+        <v>0.3875969</v>
+      </c>
+      <c r="LO146">
+        <v>0.1432665</v>
+      </c>
+      <c r="LR146">
+        <v>0.5076142</v>
+      </c>
+      <c r="LW146">
+        <v>1.0928962</v>
+      </c>
+      <c r="LX146">
+        <v>0.877193</v>
+      </c>
+      <c r="LY146">
+        <v>0.1082251</v>
+      </c>
+      <c r="MA146">
+        <v>0.1984527</v>
+      </c>
+      <c r="MC146">
+        <v>0</v>
+      </c>
+      <c r="ME146">
+        <v>0.9090909</v>
+      </c>
+      <c r="MF146">
+        <v>0.1935733</v>
+      </c>
+      <c r="MG146">
+        <v>0.3728713</v>
+      </c>
+      <c r="MI146">
+        <v>0.6194614000000001</v>
+      </c>
+      <c r="ML146">
+        <v>0</v>
+      </c>
+      <c r="MN146">
+        <v>0.592405</v>
+      </c>
+      <c r="MS146">
+        <v>0.6913838</v>
+      </c>
+      <c r="MU146">
+        <v>0.297619</v>
+      </c>
+      <c r="MW146">
+        <v>0.3215434</v>
+      </c>
+      <c r="MX146">
+        <v>0.2459016</v>
+      </c>
+      <c r="MZ146">
+        <v>0.1384853</v>
+      </c>
+      <c r="NC146">
+        <v>0.149107</v>
+      </c>
+      <c r="NE146">
+        <v>0.4844961</v>
+      </c>
+      <c r="NM146">
+        <v>0.5909743</v>
+      </c>
+      <c r="NP146">
+        <v>0.6954657</v>
+      </c>
+      <c r="NQ146">
+        <v>0</v>
+      </c>
+      <c r="NT146">
+        <v>0.2034884</v>
+      </c>
+      <c r="NW146">
+        <v>0.5369128</v>
+      </c>
+      <c r="NY146">
+        <v>1.0383065</v>
+      </c>
+      <c r="NZ146">
+        <v>1.1509683</v>
+      </c>
+      <c r="OD146">
+        <v>0.365401</v>
+      </c>
+      <c r="OE146">
+        <v>0.3207531</v>
+      </c>
+      <c r="OJ146">
+        <v>0.2290951</v>
+      </c>
+      <c r="OL146">
+        <v>0.3358665</v>
+      </c>
+      <c r="ON146">
+        <v>0.752584</v>
+      </c>
+      <c r="OP146">
+        <v>0.1760563</v>
+      </c>
+      <c r="OQ146">
+        <v>0.5491991000000001</v>
+      </c>
+      <c r="OR146">
+        <v>1.0084101</v>
+      </c>
+      <c r="OT146">
+        <v>0.4983389</v>
+      </c>
+      <c r="OV146">
+        <v>0.5394713</v>
+      </c>
+      <c r="OX146">
+        <v>0.4399323</v>
+      </c>
+      <c r="PB146">
+        <v>0.6270627</v>
+      </c>
+      <c r="PG146">
+        <v>0.6908817</v>
+      </c>
+      <c r="PJ146">
+        <v>0.2729885</v>
+      </c>
+      <c r="PK146">
+        <v>0.0764526</v>
+      </c>
+      <c r="PL146">
+        <v>0.8966245</v>
+      </c>
+      <c r="PM146">
+        <v>0.4818459</v>
+      </c>
+      <c r="PP146">
+        <v>0.3607669</v>
+      </c>
+      <c r="PR146">
+        <v>0.6008011</v>
+      </c>
+      <c r="PS146">
+        <v>0.3331622</v>
+      </c>
+      <c r="PY146">
+        <v>0.465691</v>
+      </c>
+      <c r="QD146">
+        <v>0.2990026</v>
+      </c>
+      <c r="QE146">
+        <v>0.6371483999999999</v>
+      </c>
+      <c r="QF146">
+        <v>0.3448276</v>
+      </c>
+      <c r="QK146">
+        <v>0.3592681</v>
+      </c>
+      <c r="QN146">
+        <v>1.0937431</v>
+      </c>
+      <c r="QO146">
+        <v>0.7898548</v>
+      </c>
+      <c r="QP146">
+        <v>0.5438906999999999</v>
+      </c>
+      <c r="QS146">
+        <v>1.1538462</v>
+      </c>
+      <c r="QU146">
+        <v>0.9545455</v>
+      </c>
+      <c r="QV146">
+        <v>0.7361158</v>
+      </c>
+      <c r="QX146">
+        <v>0.3590367</v>
+      </c>
+      <c r="QY146">
+        <v>0.3763375</v>
+      </c>
+      <c r="RB146">
+        <v>0.7945425</v>
+      </c>
+      <c r="RD146">
+        <v>0.6113639</v>
+      </c>
+      <c r="RI146">
+        <v>0.7846506</v>
+      </c>
+      <c r="RL146">
+        <v>0.5072464</v>
+      </c>
+      <c r="RQ146">
+        <v>0</v>
+      </c>
+      <c r="RT146">
+        <v>0.5760373</v>
+      </c>
+      <c r="RV146">
+        <v>0.257732</v>
+      </c>
+      <c r="RX146">
+        <v>0.9173116</v>
+      </c>
+      <c r="RY146">
+        <v>0.1391624</v>
+      </c>
+      <c r="SA146">
+        <v>0.07936509999999999</v>
+      </c>
+      <c r="SD146">
+        <v>0.6714876</v>
+      </c>
+      <c r="SG146">
+        <v>0.6815425000000001</v>
+      </c>
+      <c r="SH146">
+        <v>0.4580017</v>
+      </c>
+      <c r="SI146">
+        <v>0.9403108</v>
+      </c>
+      <c r="SM146">
+        <v>0.2237136</v>
+      </c>
+      <c r="SO146">
+        <v>0.2237136</v>
+      </c>
+      <c r="SP146">
+        <v>0.4230118</v>
+      </c>
+      <c r="SR146">
+        <v>0.2810972</v>
+      </c>
+      <c r="SW146">
+        <v>0.2049569</v>
+      </c>
+      <c r="SX146">
+        <v>0.1766784</v>
+      </c>
+      <c r="TS146">
+        <v>1.2615565</v>
+      </c>
+      <c r="TX146">
+        <v>0.1338238</v>
+      </c>
+      <c r="TY146">
+        <v>0.1691811</v>
+      </c>
+      <c r="UA146">
+        <v>0.6568832999999999</v>
+      </c>
+      <c r="UE146">
+        <v>0.5835657</v>
+      </c>
+      <c r="UF146">
+        <v>0.5170068</v>
+      </c>
+      <c r="UH146">
+        <v>0.56875</v>
+      </c>
+      <c r="UI146">
+        <v>0.9090909</v>
+      </c>
+      <c r="UK146">
+        <v>0.336239</v>
+      </c>
+      <c r="UN146">
+        <v>0.237078</v>
+      </c>
+      <c r="UP146">
+        <v>0.4512635</v>
+      </c>
+      <c r="US146">
+        <v>0.5630263</v>
+      </c>
+      <c r="UT146">
+        <v>0.3331564</v>
+      </c>
+      <c r="UU146">
+        <v>0.2096436</v>
+      </c>
+      <c r="UV146">
+        <v>0.07215009999999999</v>
+      </c>
+      <c r="UW146">
+        <v>0.8984566</v>
+      </c>
+      <c r="VA146">
+        <v>0.2796421</v>
+      </c>
+      <c r="VB146">
+        <v>0.1629423</v>
+      </c>
+      <c r="VO146">
+        <v>0</v>
+      </c>
+      <c r="VP146">
+        <v>0.1205788</v>
+      </c>
+      <c r="VS146">
+        <v>0.2053388</v>
+      </c>
+      <c r="VU146">
+        <v>0.6948595</v>
+      </c>
+      <c r="VW146">
+        <v>0.4464286</v>
+      </c>
+      <c r="VX146">
+        <v>1.983865</v>
+      </c>
+      <c r="VY146">
+        <v>0.6994209</v>
+      </c>
+      <c r="WB146">
+        <v>0.3034301</v>
+      </c>
+      <c r="WF146">
+        <v>0.09606000000000001</v>
+      </c>
+      <c r="WG146">
+        <v>0.8458364</v>
+      </c>
+      <c r="WL146">
+        <v>0.453467</v>
+      </c>
+      <c r="WM146">
+        <v>0.4081633</v>
+      </c>
+      <c r="WQ146">
+        <v>0.6084343</v>
+      </c>
+      <c r="WU146">
+        <v>0.1456876</v>
+      </c>
+      <c r="WW146">
+        <v>0.3321005</v>
+      </c>
+      <c r="WY146">
+        <v>0.3082192</v>
+      </c>
+      <c r="WZ146">
+        <v>0.4587853</v>
+      </c>
+      <c r="XD146">
+        <v>0.5453384</v>
+      </c>
+      <c r="XF146">
+        <v>0.2172565</v>
+      </c>
+      <c r="XG146">
+        <v>0.4658593</v>
+      </c>
+      <c r="XL146">
+        <v>0.5856667</v>
+      </c>
+      <c r="XM146">
+        <v>0.35815</v>
+      </c>
+      <c r="XT146">
+        <v>0.1564945</v>
+      </c>
+      <c r="XV146">
+        <v>0.5027034</v>
+      </c>
+      <c r="YB146">
+        <v>0.2904491</v>
+      </c>
+      <c r="YD146">
+        <v>0.2506266</v>
+      </c>
+      <c r="YH146">
+        <v>0.2923977</v>
+      </c>
+      <c r="YN146">
+        <v>0.7961688</v>
+      </c>
+      <c r="YO146">
+        <v>0.5874863</v>
+      </c>
+      <c r="YQ146">
+        <v>0.2710072</v>
+      </c>
+      <c r="YR146">
+        <v>0.8349983</v>
+      </c>
+      <c r="YX146">
+        <v>0.1548895</v>
+      </c>
+      <c r="YY146">
+        <v>0.9389671000000001</v>
+      </c>
+      <c r="ZL146">
+        <v>0.1735695</v>
+      </c>
+      <c r="ZM146">
+        <v>0.2774512</v>
+      </c>
+      <c r="ZO146">
+        <v>0.2651515</v>
+      </c>
+      <c r="ZR146">
+        <v>0.1118935</v>
+      </c>
+      <c r="ZS146">
+        <v>0.9619687</v>
+      </c>
+      <c r="ZV146">
+        <v>0.2956972</v>
+      </c>
+      <c r="ZW146">
+        <v>0.5087585</v>
+      </c>
+      <c r="ZX146">
+        <v>0.2967359</v>
+      </c>
+      <c r="ZZ146">
+        <v>0.5751228</v>
+      </c>
+      <c r="AAB146">
+        <v>0.3</v>
+      </c>
+      <c r="AAC146">
+        <v>0.4076857</v>
+      </c>
+      <c r="AAD146">
+        <v>0.472561</v>
+      </c>
+      <c r="AAF146">
+        <v>0.3852636</v>
+      </c>
+      <c r="AAH146">
+        <v>0.2246181</v>
+      </c>
+      <c r="AAJ146">
+        <v>0.2445613</v>
+      </c>
+      <c r="AAM146">
+        <v>0.1907863</v>
+      </c>
+      <c r="AAP146">
+        <v>0.5567427</v>
+      </c>
+      <c r="AAR146">
+        <v>0.5290562</v>
+      </c>
+      <c r="AAU146">
+        <v>0.6594724</v>
+      </c>
+      <c r="AAV146">
+        <v>0.1706403</v>
+      </c>
+      <c r="AAW146">
+        <v>0.1629504</v>
+      </c>
+      <c r="ABA146">
+        <v>0.3134796</v>
+      </c>
+      <c r="ABC146">
+        <v>0.3496503</v>
+      </c>
+      <c r="ABJ146">
+        <v>0.2912265</v>
+      </c>
+      <c r="ABL146">
+        <v>0.481131</v>
+      </c>
+      <c r="ABM146">
+        <v>0.502008</v>
+      </c>
+      <c r="ABN146">
+        <v>1.1619048</v>
+      </c>
+      <c r="ABP146">
+        <v>0.2001724</v>
+      </c>
+      <c r="ABT146">
+        <v>0.459007</v>
+      </c>
+      <c r="ABV146">
+        <v>0.0307589</v>
+      </c>
+      <c r="ABW146">
+        <v>0.4630364</v>
+      </c>
+      <c r="ABX146">
+        <v>0.5390760999999999</v>
+      </c>
+      <c r="ABY146">
+        <v>0.268595</v>
+      </c>
+      <c r="ABZ146">
+        <v>0.9668323</v>
+      </c>
+      <c r="ACA146">
+        <v>0.3436369</v>
+      </c>
+      <c r="ACE146">
+        <v>0.1544478</v>
+      </c>
+      <c r="ACG146">
+        <v>0.1651857</v>
+      </c>
+      <c r="ACI146">
+        <v>0.0910474</v>
+      </c>
+      <c r="ACJ146">
+        <v>0.0454545</v>
+      </c>
+      <c r="ACK146">
+        <v>0</v>
+      </c>
+      <c r="ACM146">
+        <v>0.1024087</v>
+      </c>
+      <c r="ACN146">
+        <v>0.1978543</v>
+      </c>
+      <c r="ACP146">
+        <v>0.5478178</v>
+      </c>
+      <c r="ACU146">
+        <v>0.1882344</v>
+      </c>
+      <c r="ACW146">
+        <v>0.1995654</v>
+      </c>
+      <c r="ACX146">
+        <v>0.304878</v>
+      </c>
+      <c r="ADP146">
+        <v>0.2710533</v>
+      </c>
+      <c r="ADR146">
+        <v>2.1864301</v>
+      </c>
+      <c r="ADU146">
+        <v>0.8216783</v>
+      </c>
+      <c r="ADV146">
+        <v>0.6473214</v>
+      </c>
+      <c r="AEA146">
+        <v>1.0522931</v>
+      </c>
+      <c r="AEB146">
+        <v>0.9759549</v>
+      </c>
+      <c r="AEF146">
+        <v>0.3368757</v>
+      </c>
+      <c r="AEG146">
+        <v>0.4608295</v>
+      </c>
+      <c r="AEH146">
+        <v>0.1659241</v>
+      </c>
+      <c r="AEI146">
+        <v>0.5104333</v>
+      </c>
+      <c r="AEJ146">
+        <v>0.4859611</v>
+      </c>
+      <c r="AEL146">
+        <v>0.2283105</v>
+      </c>
+      <c r="AEU146">
+        <v>0.2190749</v>
+      </c>
+      <c r="AEZ146">
+        <v>0.5555556</v>
+      </c>
+      <c r="AFD146">
+        <v>0.3058406</v>
+      </c>
+      <c r="AFG146">
+        <v>0.5703127</v>
+      </c>
+      <c r="AFH146">
+        <v>0.8254771</v>
+      </c>
+      <c r="AFK146">
+        <v>0.7155797</v>
+      </c>
+      <c r="AFL146">
+        <v>0.7362784</v>
+      </c>
+      <c r="AFN146">
+        <v>0</v>
+      </c>
+      <c r="AFT146">
+        <v>0.2435807</v>
+      </c>
+      <c r="AFU146">
+        <v>0.3666293</v>
+      </c>
+      <c r="AFX146">
+        <v>0.4176158</v>
+      </c>
+      <c r="AGA146">
+        <v>0.9330348000000001</v>
+      </c>
+      <c r="AGC146">
+        <v>0.7458251</v>
+      </c>
+      <c r="AGE146">
+        <v>0.0510204</v>
+      </c>
+      <c r="AGF146">
+        <v>0.7424242</v>
+      </c>
+      <c r="AGG146">
+        <v>0.4651163</v>
+      </c>
+      <c r="AGL146">
+        <v>0.2489885</v>
+      </c>
+      <c r="AGM146">
+        <v>0.08659790000000001</v>
+      </c>
+      <c r="AGO146">
+        <v>0.3144654</v>
+      </c>
+      <c r="AGP146">
+        <v>0.3320834</v>
+      </c>
+      <c r="AGV146">
+        <v>1.4237856</v>
+      </c>
+      <c r="AHA146">
+        <v>0.3804786</v>
+      </c>
+      <c r="AHB146">
+        <v>0.525363</v>
+      </c>
+      <c r="AHD146">
+        <v>0.6160046</v>
+      </c>
+      <c r="AHH146">
+        <v>0.4385965</v>
+      </c>
+      <c r="AHN146">
+        <v>0.4313777</v>
+      </c>
+      <c r="AHP146">
+        <v>0.2386635</v>
+      </c>
+      <c r="AHS146">
+        <v>0.4820937</v>
+      </c>
+      <c r="AHU146">
+        <v>0.2283105</v>
+      </c>
+      <c r="AHX146">
+        <v>0.2145923</v>
+      </c>
+      <c r="AIB146">
+        <v>0.8152174</v>
+      </c>
+      <c r="AID146">
+        <v>0.9681394</v>
+      </c>
+      <c r="AIE146">
+        <v>0</v>
+      </c>
+      <c r="AIF146">
+        <v>0.203252</v>
+      </c>
+      <c r="AII146">
+        <v>0.5915766</v>
+      </c>
+      <c r="AIP146">
+        <v>0.2762433</v>
+      </c>
+      <c r="AIT146">
+        <v>0.303871</v>
+      </c>
+      <c r="AIV146">
+        <v>0.4217571</v>
+      </c>
+      <c r="AIY146">
+        <v>0.0064825</v>
+      </c>
+      <c r="AIZ146">
+        <v>0.4211525</v>
+      </c>
+    </row>
+    <row r="147" spans="1:936">
+      <c r="A147" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D147">
+        <v>1.4367816</v>
+      </c>
+      <c r="H147">
+        <v>0.187076</v>
+      </c>
+      <c r="J147">
+        <v>0.06406149999999999</v>
+      </c>
+      <c r="K147">
+        <v>0.1315789</v>
+      </c>
+      <c r="L147">
+        <v>0.3083369</v>
+      </c>
+      <c r="P147">
+        <v>0.2136679</v>
+      </c>
+      <c r="R147">
+        <v>0.251938</v>
+      </c>
+      <c r="U147">
+        <v>0.1949018</v>
+      </c>
+      <c r="X147">
+        <v>0.3846154</v>
+      </c>
+      <c r="Z147">
+        <v>1.1097257</v>
+      </c>
+      <c r="AB147">
+        <v>0.5187075</v>
+      </c>
+      <c r="AD147">
+        <v>0.33533</v>
+      </c>
+      <c r="AG147">
+        <v>0.1096515</v>
+      </c>
+      <c r="AI147">
+        <v>0.1085594</v>
+      </c>
+      <c r="AN147">
+        <v>0.448621</v>
+      </c>
+      <c r="AV147">
+        <v>0.6496063</v>
+      </c>
+      <c r="AW147">
+        <v>0.552365</v>
+      </c>
+      <c r="AX147">
+        <v>0.1169591</v>
+      </c>
+      <c r="BB147">
+        <v>0.0943396</v>
+      </c>
+      <c r="BC147">
+        <v>0.579887</v>
+      </c>
+      <c r="BF147">
+        <v>0.619354</v>
+      </c>
+      <c r="BH147">
+        <v>0.4987661</v>
+      </c>
+      <c r="BI147">
+        <v>0.279597</v>
+      </c>
+      <c r="BJ147">
+        <v>0.09157510000000001</v>
+      </c>
+      <c r="BM147">
+        <v>0.1221001</v>
+      </c>
+      <c r="BR147">
+        <v>0.729167</v>
+      </c>
+      <c r="BS147">
+        <v>0.4854369</v>
+      </c>
+      <c r="BT147">
+        <v>0.1966041</v>
+      </c>
+      <c r="BW147">
+        <v>1.0310067</v>
+      </c>
+      <c r="BY147">
+        <v>0.6355932</v>
+      </c>
+      <c r="CC147">
+        <v>0</v>
+      </c>
+      <c r="CE147">
+        <v>0.4306632</v>
+      </c>
+      <c r="CL147">
+        <v>0.6087321999999999</v>
+      </c>
+      <c r="CM147">
+        <v>0.1008065</v>
+      </c>
+      <c r="CN147">
+        <v>0.6409712</v>
+      </c>
+      <c r="CO147">
+        <v>0.6476684</v>
+      </c>
+      <c r="CR147">
+        <v>0.2526209</v>
+      </c>
+      <c r="CT147">
+        <v>0.8080808</v>
+      </c>
+      <c r="CY147">
+        <v>0.7492607</v>
+      </c>
+      <c r="DC147">
+        <v>0.3348176</v>
+      </c>
+      <c r="DD147">
+        <v>0.420172</v>
+      </c>
+      <c r="DK147">
+        <v>0.2747253</v>
+      </c>
+      <c r="DN147">
+        <v>0.2696929</v>
+      </c>
+      <c r="DS147">
+        <v>3.7644037</v>
+      </c>
+      <c r="DW147">
+        <v>0.2306466</v>
+      </c>
+      <c r="DZ147">
+        <v>0.4960317</v>
+      </c>
+      <c r="EA147">
+        <v>0.1052632</v>
+      </c>
+      <c r="EK147">
+        <v>0.1865931</v>
+      </c>
+      <c r="EL147">
+        <v>0.9393682</v>
+      </c>
+      <c r="EM147">
+        <v>1.5</v>
+      </c>
+      <c r="EN147">
+        <v>0.1351351</v>
+      </c>
+      <c r="ER147">
+        <v>0.1273885</v>
+      </c>
+      <c r="ET147">
+        <v>0.2481299</v>
+      </c>
+      <c r="EZ147">
+        <v>0.7471264</v>
+      </c>
+      <c r="FA147">
+        <v>0.3527337</v>
+      </c>
+      <c r="FB147">
+        <v>0.6462036</v>
+      </c>
+      <c r="FD147">
+        <v>0.9838956</v>
+      </c>
+      <c r="FE147">
+        <v>0.5240036</v>
+      </c>
+      <c r="FG147">
+        <v>0.3996109</v>
+      </c>
+      <c r="FH147">
+        <v>0.7659574</v>
+      </c>
+      <c r="FI147">
+        <v>0.3307443</v>
+      </c>
+      <c r="FJ147">
+        <v>0.3308519</v>
+      </c>
+      <c r="FL147">
+        <v>0.4208107</v>
+      </c>
+      <c r="FO147">
+        <v>0.7043651</v>
+      </c>
+      <c r="FR147">
+        <v>0.9350548</v>
+      </c>
+      <c r="FS147">
+        <v>0.3099391</v>
+      </c>
+      <c r="FY147">
+        <v>0.8403877</v>
+      </c>
+      <c r="GB147">
+        <v>1.1984626</v>
+      </c>
+      <c r="GC147">
+        <v>0.3799298</v>
+      </c>
+      <c r="GD147">
+        <v>0</v>
+      </c>
+      <c r="GE147">
+        <v>0.7080900999999999</v>
+      </c>
+      <c r="GF147">
+        <v>1.3862274</v>
+      </c>
+      <c r="GJ147">
+        <v>0.2240701</v>
+      </c>
+      <c r="GS147">
+        <v>1.5722128</v>
+      </c>
+      <c r="GV147">
+        <v>0.5059524</v>
+      </c>
+      <c r="HA147">
+        <v>0.7385976</v>
+      </c>
+      <c r="HF147">
+        <v>0.6092184</v>
+      </c>
+      <c r="HH147">
+        <v>1.1111111</v>
+      </c>
+      <c r="HK147">
+        <v>0.8716876</v>
+      </c>
+      <c r="HL147">
+        <v>0.3567393</v>
+      </c>
+      <c r="HN147">
+        <v>0.4367635</v>
+      </c>
+      <c r="HO147">
+        <v>0.5952381</v>
+      </c>
+      <c r="HP147">
+        <v>0.4926108</v>
+      </c>
+      <c r="HT147">
+        <v>0.5482058</v>
+      </c>
+      <c r="HV147">
+        <v>0.4250916</v>
+      </c>
+      <c r="HX147">
+        <v>0.3202706</v>
+      </c>
+      <c r="HY147">
+        <v>0.1325804</v>
+      </c>
+      <c r="IC147">
+        <v>1.1184211</v>
+      </c>
+      <c r="IE147">
+        <v>0.7234727</v>
+      </c>
+      <c r="IH147">
+        <v>0.6435644</v>
+      </c>
+      <c r="II147">
+        <v>0.2135231</v>
+      </c>
+      <c r="IN147">
+        <v>0.3667056</v>
+      </c>
+      <c r="IR147">
+        <v>0.9388168</v>
+      </c>
+      <c r="IS147">
+        <v>0.1380199</v>
+      </c>
+      <c r="IZ147">
+        <v>0.3138075</v>
+      </c>
+      <c r="JB147">
+        <v>0.5876068</v>
+      </c>
+      <c r="JF147">
+        <v>0.5555556</v>
+      </c>
+      <c r="JG147">
+        <v>0.6239194</v>
+      </c>
+      <c r="JK147">
+        <v>0.2142296</v>
+      </c>
+      <c r="JO147">
+        <v>0.1878208</v>
+      </c>
+      <c r="JR147">
+        <v>0.2819556</v>
+      </c>
+      <c r="JS147">
+        <v>0.3642987</v>
+      </c>
+      <c r="JX147">
+        <v>0.7207207</v>
+      </c>
+      <c r="KB147">
+        <v>0.4769438</v>
+      </c>
+      <c r="KC147">
+        <v>1.0688192</v>
+      </c>
+      <c r="KI147">
+        <v>0.1015267</v>
+      </c>
+      <c r="KJ147">
+        <v>0.3368329</v>
+      </c>
+      <c r="KO147">
+        <v>0.1274455</v>
+      </c>
+      <c r="KV147">
+        <v>0.5744823</v>
+      </c>
+      <c r="KW147">
+        <v>0.4912312</v>
+      </c>
+      <c r="LD147">
+        <v>0.8790698</v>
+      </c>
+      <c r="LG147">
+        <v>0.1825525</v>
+      </c>
+      <c r="LH147">
+        <v>0</v>
+      </c>
+      <c r="LO147">
+        <v>0</v>
+      </c>
+      <c r="LR147">
+        <v>0.4926108</v>
+      </c>
+      <c r="LW147">
+        <v>1.0989011</v>
+      </c>
+      <c r="LY147">
+        <v>0.1085776</v>
+      </c>
+      <c r="MA147">
+        <v>0.1908321</v>
+      </c>
+      <c r="MC147">
+        <v>0</v>
+      </c>
+      <c r="ME147">
+        <v>0.8982036</v>
+      </c>
+      <c r="MF147">
+        <v>0.1936151</v>
+      </c>
+      <c r="MG147">
+        <v>0.2996378</v>
+      </c>
+      <c r="MI147">
+        <v>0.791859</v>
+      </c>
+      <c r="ML147">
+        <v>0</v>
+      </c>
+      <c r="MN147">
+        <v>0.7781758</v>
+      </c>
+      <c r="MS147">
+        <v>0.7192977</v>
+      </c>
+      <c r="MU147">
+        <v>0.4944675</v>
+      </c>
+      <c r="MW147">
+        <v>0</v>
+      </c>
+      <c r="MX147">
+        <v>0.225</v>
+      </c>
+      <c r="MZ147">
+        <v>0.1963841</v>
+      </c>
+      <c r="NC147">
+        <v>0.1419584</v>
+      </c>
+      <c r="NE147">
+        <v>0.6372549</v>
+      </c>
+      <c r="NM147">
+        <v>0.5111198</v>
+      </c>
+      <c r="NP147">
+        <v>0.7165404</v>
+      </c>
+      <c r="NQ147">
+        <v>0</v>
+      </c>
+      <c r="NT147">
+        <v>0.0593472</v>
+      </c>
+      <c r="NW147">
+        <v>0.5095541</v>
+      </c>
+      <c r="NY147">
+        <v>1.3368056</v>
+      </c>
+      <c r="NZ147">
+        <v>1.1594407</v>
+      </c>
+      <c r="OD147">
+        <v>0.2553563</v>
+      </c>
+      <c r="OE147">
+        <v>0.4108436</v>
+      </c>
+      <c r="OJ147">
+        <v>0.2267574</v>
+      </c>
+      <c r="OL147">
+        <v>0.2696768</v>
+      </c>
+      <c r="ON147">
+        <v>0.6527501999999999</v>
+      </c>
+      <c r="OP147">
+        <v>0.3558719</v>
+      </c>
+      <c r="OQ147">
+        <v>0.4716981</v>
+      </c>
+      <c r="OR147">
+        <v>1.0857963</v>
+      </c>
+      <c r="OT147">
+        <v>0.6472492</v>
+      </c>
+      <c r="OV147">
+        <v>0.4859099</v>
+      </c>
+      <c r="OX147">
+        <v>0.4921423</v>
+      </c>
+      <c r="PB147">
+        <v>0.7276507</v>
+      </c>
+      <c r="PG147">
+        <v>0.4837103</v>
+      </c>
+      <c r="PJ147">
+        <v>0.7031857</v>
+      </c>
+      <c r="PK147">
+        <v>0.07668709999999999</v>
+      </c>
+      <c r="PL147">
+        <v>1.0649627</v>
+      </c>
+      <c r="PM147">
+        <v>0.5517942</v>
+      </c>
+      <c r="PP147">
+        <v>0.2129006</v>
+      </c>
+      <c r="PR147">
+        <v>0.6460876</v>
+      </c>
+      <c r="PS147">
+        <v>0.3759084</v>
+      </c>
+      <c r="PY147">
+        <v>0.2242888</v>
+      </c>
+      <c r="QD147">
+        <v>0.2262809</v>
+      </c>
+      <c r="QE147">
+        <v>0.9892915</v>
+      </c>
+      <c r="QF147">
+        <v>0.3412969</v>
+      </c>
+      <c r="QK147">
+        <v>0.4484202</v>
+      </c>
+      <c r="QN147">
+        <v>1.0900413</v>
+      </c>
+      <c r="QO147">
+        <v>0.7140528</v>
+      </c>
+      <c r="QP147">
+        <v>0.4352442</v>
+      </c>
+      <c r="QS147">
+        <v>1.4394962</v>
+      </c>
+      <c r="QU147">
+        <v>0.8878505</v>
+      </c>
+      <c r="QV147">
+        <v>0.7527933999999999</v>
+      </c>
+      <c r="QX147">
+        <v>0.2432989</v>
+      </c>
+      <c r="QY147">
+        <v>0.3953501</v>
+      </c>
+      <c r="RB147">
+        <v>0.8660508</v>
+      </c>
+      <c r="RD147">
+        <v>0.5114097</v>
+      </c>
+      <c r="RI147">
+        <v>0.8333333000000001</v>
+      </c>
+      <c r="RL147">
+        <v>0.5263158</v>
+      </c>
+      <c r="RQ147">
+        <v>0</v>
+      </c>
+      <c r="RT147">
+        <v>0.5576559</v>
+      </c>
+      <c r="RV147">
+        <v>0.8196721</v>
+      </c>
+      <c r="RX147">
+        <v>0.7349177</v>
+      </c>
+      <c r="RY147">
+        <v>0.2299167</v>
+      </c>
+      <c r="SA147">
+        <v>0.3968254</v>
+      </c>
+      <c r="SD147">
+        <v>0.8711374</v>
+      </c>
+      <c r="SG147">
+        <v>0.7123338</v>
+      </c>
+      <c r="SH147">
+        <v>0.4376968</v>
+      </c>
+      <c r="SI147">
+        <v>0.785092</v>
+      </c>
+      <c r="SM147">
+        <v>0.4705882</v>
+      </c>
+      <c r="SO147">
+        <v>0.4366812</v>
+      </c>
+      <c r="SP147">
+        <v>0.4340278</v>
+      </c>
+      <c r="SR147">
+        <v>0.3419941</v>
+      </c>
+      <c r="SW147">
+        <v>0.3911797</v>
+      </c>
+      <c r="SX147">
+        <v>0.1760563</v>
+      </c>
+      <c r="TS147">
+        <v>1.7095864</v>
+      </c>
+      <c r="TX147">
+        <v>0.1415094</v>
+      </c>
+      <c r="TY147">
+        <v>0.3452874</v>
+      </c>
+      <c r="UA147">
+        <v>0.6624383</v>
+      </c>
+      <c r="UE147">
+        <v>0.6013798</v>
+      </c>
+      <c r="UF147">
+        <v>0.2721088</v>
+      </c>
+      <c r="UH147">
+        <v>0.3636364</v>
+      </c>
+      <c r="UI147">
+        <v>0.9411146</v>
+      </c>
+      <c r="UK147">
+        <v>0.3532751</v>
+      </c>
+      <c r="UN147">
+        <v>0.2009856</v>
+      </c>
+      <c r="UP147">
+        <v>0.4480287</v>
+      </c>
+      <c r="US147">
+        <v>0.3654838</v>
+      </c>
+      <c r="UT147">
+        <v>0.4692153</v>
+      </c>
+      <c r="UU147">
+        <v>0.1031992</v>
+      </c>
+      <c r="UV147">
+        <v>0</v>
+      </c>
+      <c r="UW147">
+        <v>0.8596699</v>
+      </c>
+      <c r="VA147">
+        <v>0.0570776</v>
+      </c>
+      <c r="VB147">
+        <v>0.1652502</v>
+      </c>
+      <c r="VO147">
+        <v>0</v>
+      </c>
+      <c r="VP147">
+        <v>0.1233553</v>
+      </c>
+      <c r="VS147">
+        <v>0.2159827</v>
+      </c>
+      <c r="VU147">
+        <v>0.8309807</v>
+      </c>
+      <c r="VW147">
+        <v>0.4347826</v>
+      </c>
+      <c r="VX147">
+        <v>1.880531</v>
+      </c>
+      <c r="VY147">
+        <v>0.6796763</v>
+      </c>
+      <c r="WB147">
+        <v>0.3825137</v>
+      </c>
+      <c r="WF147">
+        <v>0.0996491</v>
+      </c>
+      <c r="WG147">
+        <v>0.8258375999999999</v>
+      </c>
+      <c r="WL147">
+        <v>0.4824939</v>
+      </c>
+      <c r="WM147">
+        <v>0</v>
+      </c>
+      <c r="WQ147">
+        <v>0.4652087</v>
+      </c>
+      <c r="WU147">
+        <v>0.1429388</v>
+      </c>
+      <c r="WW147">
+        <v>0.4870638</v>
+      </c>
+      <c r="WY147">
+        <v>0.1388889</v>
+      </c>
+      <c r="WZ147">
+        <v>0.5200988</v>
+      </c>
+      <c r="XD147">
+        <v>0.5171578999999999</v>
+      </c>
+      <c r="XF147">
+        <v>0.2203389</v>
+      </c>
+      <c r="XG147">
+        <v>0.4571618</v>
+      </c>
+      <c r="XL147">
+        <v>0.7318137</v>
+      </c>
+      <c r="XM147">
+        <v>0.3174603</v>
+      </c>
+      <c r="XT147">
+        <v>0.1557632</v>
+      </c>
+      <c r="XV147">
+        <v>0.4454227</v>
+      </c>
+      <c r="YB147">
+        <v>0.5013199</v>
+      </c>
+      <c r="YD147">
+        <v>0.3164557</v>
+      </c>
+      <c r="YH147">
+        <v>0</v>
+      </c>
+      <c r="YN147">
+        <v>1.0112288</v>
+      </c>
+      <c r="YO147">
+        <v>0.313246</v>
+      </c>
+      <c r="YQ147">
+        <v>0.2712112</v>
+      </c>
+      <c r="YR147">
+        <v>0.972522</v>
+      </c>
+      <c r="YX147">
+        <v>0.2016812</v>
+      </c>
+      <c r="YY147">
+        <v>0.4524887</v>
+      </c>
+      <c r="ZL147">
+        <v>0.1776573</v>
+      </c>
+      <c r="ZM147">
+        <v>0.265674</v>
+      </c>
+      <c r="ZO147">
+        <v>0.4650437</v>
+      </c>
+      <c r="ZR147">
+        <v>0.1164037</v>
+      </c>
+      <c r="ZS147">
+        <v>0.9398907</v>
+      </c>
+      <c r="ZV147">
+        <v>0.2579807</v>
+      </c>
+      <c r="ZW147">
+        <v>0.590784</v>
+      </c>
+      <c r="ZX147">
+        <v>0.2994012</v>
+      </c>
+      <c r="ZZ147">
+        <v>0.5642023</v>
+      </c>
+      <c r="AAB147">
+        <v>0</v>
+      </c>
+      <c r="AAC147">
+        <v>0.4199981</v>
+      </c>
+      <c r="AAD147">
+        <v>0.2272727</v>
+      </c>
+      <c r="AAF147">
+        <v>0.3886483</v>
+      </c>
+      <c r="AAH147">
+        <v>0.2099076</v>
+      </c>
+      <c r="AAJ147">
+        <v>0.200912</v>
+      </c>
+      <c r="AAM147">
+        <v>0.182491</v>
+      </c>
+      <c r="AAP147">
+        <v>0.4933629</v>
+      </c>
+      <c r="AAR147">
+        <v>0.5380179</v>
+      </c>
+      <c r="AAU147">
+        <v>0.5257009</v>
+      </c>
+      <c r="AAV147">
+        <v>0.188575</v>
+      </c>
+      <c r="AAW147">
+        <v>0.1639344</v>
+      </c>
+      <c r="ABA147">
+        <v>0.2994012</v>
+      </c>
+      <c r="ABC147">
+        <v>0.4848485</v>
+      </c>
+      <c r="ABJ147">
+        <v>0.2067307</v>
+      </c>
+      <c r="ABL147">
+        <v>0.2970237</v>
+      </c>
+      <c r="ABM147">
+        <v>0.7268951</v>
+      </c>
+      <c r="ABN147">
+        <v>0.6515837</v>
+      </c>
+      <c r="ABP147">
+        <v>0.2687663</v>
+      </c>
+      <c r="ABT147">
+        <v>0.5009371</v>
+      </c>
+      <c r="ABV147">
+        <v>0.0310118</v>
+      </c>
+      <c r="ABW147">
+        <v>0.5879546</v>
+      </c>
+      <c r="ABX147">
+        <v>0.6797957</v>
+      </c>
+      <c r="ABY147">
+        <v>0.1626016</v>
+      </c>
+      <c r="ABZ147">
+        <v>1.0071097</v>
+      </c>
+      <c r="ACA147">
+        <v>0.280355</v>
+      </c>
+      <c r="ACE147">
+        <v>0.1402604</v>
+      </c>
+      <c r="ACG147">
+        <v>0.1294514</v>
+      </c>
+      <c r="ACI147">
+        <v>0.2579212</v>
+      </c>
+      <c r="ACJ147">
+        <v>0.0451467</v>
+      </c>
+      <c r="ACK147">
+        <v>0</v>
+      </c>
+      <c r="ACM147">
+        <v>0.2224749</v>
+      </c>
+      <c r="ACN147">
+        <v>0.289367</v>
+      </c>
+      <c r="ACP147">
+        <v>0.4904203</v>
+      </c>
+      <c r="ACU147">
+        <v>0.2707375</v>
+      </c>
+      <c r="ACW147">
+        <v>0.2224981</v>
+      </c>
+      <c r="ACX147">
+        <v>0.2994012</v>
+      </c>
+      <c r="ADP147">
+        <v>0.4638219</v>
+      </c>
+      <c r="ADR147">
+        <v>2.1443834</v>
+      </c>
+      <c r="ADU147">
+        <v>0.8703704</v>
+      </c>
+      <c r="ADV147">
+        <v>1.0985533</v>
+      </c>
+      <c r="AEA147">
+        <v>0.7732031</v>
+      </c>
+      <c r="AEB147">
+        <v>1.1615917</v>
+      </c>
+      <c r="AEF147">
+        <v>0.3197483</v>
+      </c>
+      <c r="AEG147">
+        <v>0.2409639</v>
+      </c>
+      <c r="AEH147">
+        <v>0.1699912</v>
+      </c>
+      <c r="AEI147">
+        <v>0.509952</v>
+      </c>
+      <c r="AEJ147">
+        <v>0.3837719</v>
+      </c>
+      <c r="AEL147">
+        <v>0.2408478</v>
+      </c>
+      <c r="AEU147">
+        <v>0.3371648</v>
+      </c>
+      <c r="AEZ147">
+        <v>0.1851852</v>
+      </c>
+      <c r="AFD147">
+        <v>0.2269313</v>
+      </c>
+      <c r="AFG147">
+        <v>0.6542763</v>
+      </c>
+      <c r="AFH147">
+        <v>0.8260513</v>
+      </c>
+      <c r="AFK147">
+        <v>0.9477124</v>
+      </c>
+      <c r="AFL147">
+        <v>0.7392473000000001</v>
+      </c>
+      <c r="AFN147">
+        <v>0</v>
+      </c>
+      <c r="AFT147">
+        <v>0.1740212</v>
+      </c>
+      <c r="AFU147">
+        <v>0.2266456</v>
+      </c>
+      <c r="AFX147">
+        <v>0.4147813</v>
+      </c>
+      <c r="AGA147">
+        <v>0.8943923</v>
+      </c>
+      <c r="AGC147">
+        <v>0.6451246</v>
+      </c>
+      <c r="AGE147">
+        <v>0.2541394</v>
+      </c>
+      <c r="AGF147">
+        <v>0.7814991999999999</v>
+      </c>
+      <c r="AGG147">
+        <v>0.6144393</v>
+      </c>
+      <c r="AGL147">
+        <v>0.1891716</v>
+      </c>
+      <c r="AGM147">
+        <v>0.09174309999999999</v>
+      </c>
+      <c r="AGO147">
+        <v>0.3242542</v>
+      </c>
+      <c r="AGP147">
+        <v>0.3390187</v>
+      </c>
+      <c r="AGV147">
+        <v>2.0729685</v>
+      </c>
+      <c r="AHA147">
+        <v>0.3638045</v>
+      </c>
+      <c r="AHB147">
+        <v>0.6147255</v>
+      </c>
+      <c r="AHD147">
+        <v>0.4864709</v>
+      </c>
+      <c r="AHH147">
+        <v>0.7692308</v>
+      </c>
+      <c r="AHN147">
+        <v>0.3835798</v>
+      </c>
+      <c r="AHP147">
+        <v>0</v>
+      </c>
+      <c r="AHS147">
+        <v>0.4723347</v>
+      </c>
+      <c r="AHU147">
+        <v>0.1176471</v>
+      </c>
+      <c r="AHX147">
+        <v>0.2242152</v>
+      </c>
+      <c r="AIB147">
+        <v>0.8379888</v>
+      </c>
+      <c r="AID147">
+        <v>0.7458154</v>
+      </c>
+      <c r="AIE147">
+        <v>0.3058104</v>
+      </c>
+      <c r="AIF147">
+        <v>0.5208333000000001</v>
+      </c>
+      <c r="AII147">
+        <v>0.3619928</v>
+      </c>
+      <c r="AIP147">
+        <v>0.2219611</v>
+      </c>
+      <c r="AIT147">
+        <v>0.285388</v>
+      </c>
+      <c r="AIV147">
+        <v>0.3213058</v>
+      </c>
+      <c r="AIY147">
+        <v>0.1852177</v>
+      </c>
+      <c r="AIZ147">
+        <v>0.4384687</v>
+      </c>
+    </row>
+    <row r="148" spans="1:936">
+      <c r="A148" t="s">
+        <v>1085</v>
       </c>
     </row>
   </sheetData>
